--- a/로스트아크/데이터테이블/1차완성/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57C825-E023-4D05-8A93-6CCEC96413F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002D35A-89CE-4B21-8402-F4D21F49752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14124" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1614,7 +1614,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="207">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3784,6 +3784,274 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_00</t>
+  </si>
+  <si>
+    <t>BREAKER_01</t>
+  </si>
+  <si>
+    <t>BREAKER_02</t>
+  </si>
+  <si>
+    <t>BREAKER_03</t>
+  </si>
+  <si>
+    <t>BREAKER_04</t>
+  </si>
+  <si>
+    <t>권왕의 진격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_05</t>
+  </si>
+  <si>
+    <t>연쇄 돌풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_06</t>
+  </si>
+  <si>
+    <t>비뢰격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_07</t>
+  </si>
+  <si>
+    <t>유성낙하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_08</t>
+  </si>
+  <si>
+    <t>즉결타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_09</t>
+  </si>
+  <si>
+    <t>연속전격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_10</t>
+  </si>
+  <si>
+    <t>백렬권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_11</t>
+  </si>
+  <si>
+    <t>금강난격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_12</t>
+  </si>
+  <si>
+    <t>징벌의 파도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_13</t>
+  </si>
+  <si>
+    <t>척결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_14</t>
+  </si>
+  <si>
+    <t>휩쓸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_15</t>
+  </si>
+  <si>
+    <t>비상격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_16</t>
+  </si>
+  <si>
+    <t>대지파쇄권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_17</t>
+  </si>
+  <si>
+    <t>진 파공권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_18</t>
+  </si>
+  <si>
+    <t>청월난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_19</t>
+  </si>
+  <si>
+    <t>연의붕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_20</t>
+  </si>
+  <si>
+    <t>천기심권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_21</t>
+  </si>
+  <si>
+    <t>파천섬광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_22</t>
+  </si>
+  <si>
+    <t>천문격파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_23</t>
+  </si>
+  <si>
+    <t>환무월명권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_26</t>
+  </si>
+  <si>
+    <t>권왕십이식 : 낙화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_27</t>
+  </si>
+  <si>
+    <t>BREAKER_28</t>
+  </si>
+  <si>
+    <t>호신투기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_29</t>
+  </si>
+  <si>
+    <t>천왕지무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_30</t>
+  </si>
+  <si>
+    <t>성운멸쇄권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_31</t>
+  </si>
+  <si>
+    <t>천견지종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_32</t>
+  </si>
+  <si>
+    <t>일월신권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_33</t>
+  </si>
+  <si>
+    <t>권왕십이식 : 풍랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레이커 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 기본공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연쇄 돌풍 [휘몰아치기]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속전격 [연속 동작]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백렬권 [일순 연격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금강난격 [확정된 연격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청월난무 [지면 강타]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연의붕권 [난타]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파천섬광 [완벽한 일격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권왕태세 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 진입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4035,7 +4303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -4289,13 +4557,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4431,9 +4725,6 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4445,6 +4736,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4768,7 +5092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4788,11 +5112,11 @@
   <sheetData>
     <row r="1" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C3" s="10" t="s">
@@ -5067,16 +5391,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N96" sqref="A1:N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" style="45" customWidth="1"/>
     <col min="2" max="2" width="5.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="5" bestFit="1" customWidth="1"/>
@@ -7205,7 +7529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="44" t="s">
         <v>115</v>
       </c>
@@ -7249,7 +7573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="44" t="s">
         <v>116</v>
       </c>
@@ -7293,7 +7617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="44" t="s">
         <v>117</v>
       </c>
@@ -7337,7 +7661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="44" t="s">
         <v>118</v>
       </c>
@@ -7381,7 +7705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="44" t="s">
         <v>103</v>
       </c>
@@ -7425,8 +7749,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="44" t="s">
+    <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="52" t="s">
         <v>104</v>
       </c>
       <c r="B54" s="5">
@@ -7469,8 +7793,1837 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="45"/>
+    <row r="55" spans="1:17" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+    </row>
+    <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="5">
+        <v>313000</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N56" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="5">
+        <v>313010</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
+        <v>4</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="5">
+        <v>6</v>
+      </c>
+      <c r="L57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="5">
+        <v>313020</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
+        <v>4</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="5">
+        <v>6</v>
+      </c>
+      <c r="L58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="5">
+        <v>313030</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
+      <c r="E59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
+        <v>4</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="5">
+        <v>30</v>
+      </c>
+      <c r="L59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="5">
+        <v>313040</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="5">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5">
+        <v>11</v>
+      </c>
+      <c r="J60" s="5">
+        <v>10</v>
+      </c>
+      <c r="K60" s="5">
+        <v>8</v>
+      </c>
+      <c r="L60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N60" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="5">
+        <v>313050</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="5">
+        <v>11</v>
+      </c>
+      <c r="E61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>2</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>11</v>
+      </c>
+      <c r="J61" s="5">
+        <v>10</v>
+      </c>
+      <c r="K61" s="5">
+        <v>8</v>
+      </c>
+      <c r="L61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N61" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="5">
+        <v>313051</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="5">
+        <v>11</v>
+      </c>
+      <c r="E62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>1</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
+        <v>11</v>
+      </c>
+      <c r="J62" s="5">
+        <v>10</v>
+      </c>
+      <c r="K62" s="5">
+        <v>8</v>
+      </c>
+      <c r="L62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N62" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="5">
+        <v>313060</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="5">
+        <v>11</v>
+      </c>
+      <c r="E63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="5">
+        <v>11</v>
+      </c>
+      <c r="J63" s="5">
+        <v>15</v>
+      </c>
+      <c r="K63" s="5">
+        <v>8</v>
+      </c>
+      <c r="L63" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N63" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="5">
+        <v>313070</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="5">
+        <v>11</v>
+      </c>
+      <c r="E64" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>10</v>
+      </c>
+      <c r="G64" s="5">
+        <v>7</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5">
+        <v>11</v>
+      </c>
+      <c r="J64" s="5">
+        <v>25</v>
+      </c>
+      <c r="K64" s="5">
+        <v>14</v>
+      </c>
+      <c r="L64" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N64" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="5">
+        <v>313080</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="5">
+        <v>11</v>
+      </c>
+      <c r="E65" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <v>11</v>
+      </c>
+      <c r="J65" s="5">
+        <v>10</v>
+      </c>
+      <c r="K65" s="5">
+        <v>18</v>
+      </c>
+      <c r="L65" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="5">
+        <v>313090</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="5">
+        <v>11</v>
+      </c>
+      <c r="E66" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>2</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+      <c r="I66" s="5">
+        <v>11</v>
+      </c>
+      <c r="J66" s="5">
+        <v>15</v>
+      </c>
+      <c r="K66" s="5">
+        <v>14</v>
+      </c>
+      <c r="L66" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N66" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="5">
+        <v>313091</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="5">
+        <v>11</v>
+      </c>
+      <c r="E67" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5">
+        <v>11</v>
+      </c>
+      <c r="J67" s="5">
+        <v>15</v>
+      </c>
+      <c r="K67" s="5">
+        <v>14</v>
+      </c>
+      <c r="L67" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N67" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="5">
+        <v>313100</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="5">
+        <v>11</v>
+      </c>
+      <c r="E68" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <v>5</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5">
+        <v>11</v>
+      </c>
+      <c r="J68" s="5">
+        <v>15</v>
+      </c>
+      <c r="K68" s="5">
+        <v>16</v>
+      </c>
+      <c r="L68" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N68" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="5">
+        <v>313101</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="5">
+        <v>11</v>
+      </c>
+      <c r="E69" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5">
+        <v>11</v>
+      </c>
+      <c r="J69" s="5">
+        <v>15</v>
+      </c>
+      <c r="K69" s="5">
+        <v>16</v>
+      </c>
+      <c r="L69" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N69" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="5">
+        <v>313110</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="5">
+        <v>11</v>
+      </c>
+      <c r="E70" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <v>2</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5">
+        <v>11</v>
+      </c>
+      <c r="J70" s="5">
+        <v>20</v>
+      </c>
+      <c r="K70" s="5">
+        <v>16</v>
+      </c>
+      <c r="L70" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N70" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="5">
+        <v>313111</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="5">
+        <v>11</v>
+      </c>
+      <c r="E71" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5">
+        <v>11</v>
+      </c>
+      <c r="J71" s="5">
+        <v>20</v>
+      </c>
+      <c r="K71" s="5">
+        <v>16</v>
+      </c>
+      <c r="L71" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N71" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="5">
+        <v>313120</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="5">
+        <v>11</v>
+      </c>
+      <c r="E72" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5">
+        <v>11</v>
+      </c>
+      <c r="J72" s="5">
+        <v>30</v>
+      </c>
+      <c r="K72" s="5">
+        <v>24</v>
+      </c>
+      <c r="L72" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N72" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="5">
+        <v>313130</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="5">
+        <v>12</v>
+      </c>
+      <c r="E73" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73" s="5">
+        <v>12</v>
+      </c>
+      <c r="J73" s="5">
+        <v>20</v>
+      </c>
+      <c r="K73" s="5">
+        <v>12</v>
+      </c>
+      <c r="L73" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N73" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="5">
+        <v>313140</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="5">
+        <v>12</v>
+      </c>
+      <c r="E74" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0</v>
+      </c>
+      <c r="I74" s="5">
+        <v>12</v>
+      </c>
+      <c r="J74" s="5">
+        <v>10</v>
+      </c>
+      <c r="K74" s="5">
+        <v>8</v>
+      </c>
+      <c r="L74" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N74" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="5">
+        <v>313150</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="5">
+        <v>12</v>
+      </c>
+      <c r="E75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <v>1</v>
+      </c>
+      <c r="H75" s="5">
+        <v>1</v>
+      </c>
+      <c r="I75" s="5">
+        <v>12</v>
+      </c>
+      <c r="J75" s="5">
+        <v>30</v>
+      </c>
+      <c r="K75" s="5">
+        <v>14</v>
+      </c>
+      <c r="L75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N75" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="5">
+        <v>313160</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="5">
+        <v>12</v>
+      </c>
+      <c r="E76" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <v>1</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1</v>
+      </c>
+      <c r="I76" s="5">
+        <v>12</v>
+      </c>
+      <c r="J76" s="5">
+        <v>35</v>
+      </c>
+      <c r="K76" s="5">
+        <v>20</v>
+      </c>
+      <c r="L76" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N76" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="5">
+        <v>313170</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="5">
+        <v>12</v>
+      </c>
+      <c r="E77" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+      <c r="I77" s="5">
+        <v>12</v>
+      </c>
+      <c r="J77" s="5">
+        <v>30</v>
+      </c>
+      <c r="K77" s="5">
+        <v>18</v>
+      </c>
+      <c r="L77" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N77" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="5">
+        <v>313180</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="5">
+        <v>12</v>
+      </c>
+      <c r="E78" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+      <c r="I78" s="5">
+        <v>12</v>
+      </c>
+      <c r="J78" s="5">
+        <v>40</v>
+      </c>
+      <c r="K78" s="5">
+        <v>18</v>
+      </c>
+      <c r="L78" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N78" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="5">
+        <v>313181</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="5">
+        <v>12</v>
+      </c>
+      <c r="E79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5">
+        <v>5</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="I79" s="5">
+        <v>12</v>
+      </c>
+      <c r="J79" s="5">
+        <v>40</v>
+      </c>
+      <c r="K79" s="5">
+        <v>18</v>
+      </c>
+      <c r="L79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N79" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="5">
+        <v>313190</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="5">
+        <v>12</v>
+      </c>
+      <c r="E80" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
+        <v>1</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+      <c r="I80" s="5">
+        <v>12</v>
+      </c>
+      <c r="J80" s="5">
+        <v>45</v>
+      </c>
+      <c r="K80" s="5">
+        <v>24</v>
+      </c>
+      <c r="L80" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N80" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="5">
+        <v>313191</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="5">
+        <v>12</v>
+      </c>
+      <c r="E81" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5">
+        <v>2</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+      <c r="I81" s="5">
+        <v>12</v>
+      </c>
+      <c r="J81" s="5">
+        <v>45</v>
+      </c>
+      <c r="K81" s="5">
+        <v>24</v>
+      </c>
+      <c r="L81" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N81" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="5">
+        <v>313200</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="5">
+        <v>12</v>
+      </c>
+      <c r="E82" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5">
+        <v>1</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0</v>
+      </c>
+      <c r="I82" s="5">
+        <v>12</v>
+      </c>
+      <c r="J82" s="5">
+        <v>40</v>
+      </c>
+      <c r="K82" s="5">
+        <v>24</v>
+      </c>
+      <c r="L82" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N82" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="5">
+        <v>313210</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="5">
+        <v>12</v>
+      </c>
+      <c r="E83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5">
+        <v>1</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1</v>
+      </c>
+      <c r="I83" s="5">
+        <v>12</v>
+      </c>
+      <c r="J83" s="5">
+        <v>50</v>
+      </c>
+      <c r="K83" s="5">
+        <v>40</v>
+      </c>
+      <c r="L83" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N83" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="5">
+        <v>313211</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" s="5">
+        <v>12</v>
+      </c>
+      <c r="E84" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>6</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5">
+        <v>12</v>
+      </c>
+      <c r="J84" s="5">
+        <v>50</v>
+      </c>
+      <c r="K84" s="5">
+        <v>40</v>
+      </c>
+      <c r="L84" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N84" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="5">
+        <v>313220</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4</v>
+      </c>
+      <c r="E85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>1</v>
+      </c>
+      <c r="H85" s="5">
+        <v>4</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" s="5">
+        <v>300</v>
+      </c>
+      <c r="L85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N85" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="5">
+        <v>313230</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="5">
+        <v>4</v>
+      </c>
+      <c r="E86" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
+        <v>1</v>
+      </c>
+      <c r="H86" s="5">
+        <v>4</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" s="5">
+        <v>300</v>
+      </c>
+      <c r="L86" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N86" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="5">
+        <v>313240</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="5">
+        <v>3</v>
+      </c>
+      <c r="E87" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2</v>
+      </c>
+      <c r="I87" s="5">
+        <v>10</v>
+      </c>
+      <c r="J87" s="5">
+        <v>100</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L87" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N87" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="5">
+        <v>313250</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="5">
+        <v>3</v>
+      </c>
+      <c r="E88" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5">
+        <v>1</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2</v>
+      </c>
+      <c r="I88" s="5">
+        <v>10</v>
+      </c>
+      <c r="J88" s="5">
+        <v>100</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N88" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="5">
+        <v>313260</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="5">
+        <v>12</v>
+      </c>
+      <c r="E89" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
+        <v>14</v>
+      </c>
+      <c r="G89" s="5">
+        <v>6</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="5">
+        <v>40</v>
+      </c>
+      <c r="L89" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N89" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="5">
+        <v>313270</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5">
+        <v>2</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L90" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N90" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="5">
+        <v>313280</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3</v>
+      </c>
+      <c r="E91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1</v>
+      </c>
+      <c r="H91" s="5">
+        <v>2</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="5">
+        <v>10</v>
+      </c>
+      <c r="L91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="5">
+        <v>313290</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="5">
+        <v>11</v>
+      </c>
+      <c r="E92" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+      <c r="I92" s="5">
+        <v>11</v>
+      </c>
+      <c r="J92" s="5">
+        <v>40</v>
+      </c>
+      <c r="K92" s="5">
+        <v>64</v>
+      </c>
+      <c r="L92" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N92" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="5">
+        <v>313300</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="5">
+        <v>12</v>
+      </c>
+      <c r="E93" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5">
+        <v>1</v>
+      </c>
+      <c r="I93" s="5">
+        <v>12</v>
+      </c>
+      <c r="J93" s="5">
+        <v>50</v>
+      </c>
+      <c r="K93" s="5">
+        <v>72</v>
+      </c>
+      <c r="L93" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N93" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="5">
+        <v>313310</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" s="5">
+        <v>5</v>
+      </c>
+      <c r="E94" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1</v>
+      </c>
+      <c r="H94" s="5">
+        <v>4</v>
+      </c>
+      <c r="I94" s="5">
+        <v>20</v>
+      </c>
+      <c r="J94" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K94" s="5">
+        <v>300</v>
+      </c>
+      <c r="L94" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N94" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="5">
+        <v>313320</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="5">
+        <v>5</v>
+      </c>
+      <c r="E95" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
+        <v>1</v>
+      </c>
+      <c r="H95" s="5">
+        <v>4</v>
+      </c>
+      <c r="I95" s="5">
+        <v>20</v>
+      </c>
+      <c r="J95" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K95" s="5">
+        <v>300</v>
+      </c>
+      <c r="L95" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N95" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="5">
+        <v>313330</v>
+      </c>
+      <c r="C96" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" s="5">
+        <v>12</v>
+      </c>
+      <c r="E96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5">
+        <v>6</v>
+      </c>
+      <c r="H96" s="5">
+        <v>2</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0</v>
+      </c>
+      <c r="L96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N96" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="51"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/1차완성/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Skill_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002D35A-89CE-4B21-8402-F4D21F49752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D272C-56F1-432C-AF38-856CDFCFB961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -1614,7 +1614,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="208">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1657,10 +1657,6 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획용 (간단한 설명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4052,6 +4048,14 @@
   </si>
   <si>
     <t>수라 상태 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획용 스킬 설명 (실제 데이터에는 적용 X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4062,7 +4066,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4130,15 +4134,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -4247,6 +4242,22 @@
       <b/>
       <sz val="8"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -4589,7 +4600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4614,7 +4625,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4641,10 +4652,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4653,13 +4664,13 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4671,22 +4682,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4698,7 +4709,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4722,11 +4733,17 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4737,38 +4754,23 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5093,7 +5095,7 @@
   <dimension ref="B1:Q19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5112,11 +5114,11 @@
   <sheetData>
     <row r="1" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C3" s="10" t="s">
@@ -5137,49 +5139,49 @@
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" ref="C5:C17" si="0">ROW(C5)-4</f>
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="27"/>
     </row>
@@ -5190,13 +5192,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="29"/>
     </row>
@@ -5206,13 +5208,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -5221,13 +5223,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -5239,10 +5241,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="30"/>
     </row>
@@ -5255,10 +5257,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="39.6" x14ac:dyDescent="0.4">
@@ -5270,10 +5272,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -5282,13 +5284,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -5297,13 +5299,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
@@ -5312,13 +5314,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
@@ -5327,13 +5329,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.4">
@@ -5345,10 +5347,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5391,11 +5393,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N96" sqref="A1:N96"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5417,24 +5419,24 @@
     <col min="18" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -5446,86 +5448,89 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N1" s="41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:17" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="N2" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+    </row>
+    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="5">
         <v>305000</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="5">
-        <v>305001</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -5543,24 +5548,24 @@
         <v>0</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5">
-        <v>305010</v>
+        <v>305001</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
@@ -5572,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -5580,28 +5585,28 @@
       <c r="J4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="5">
-        <v>6</v>
+      <c r="K4" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="L4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="N4" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="5">
-        <v>305020</v>
+        <v>305010</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -5637,18 +5642,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="44" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B6" s="5">
-        <v>305030</v>
+        <v>305020</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="b">
         <v>0</v>
@@ -5669,7 +5674,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="5">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L6" s="5" t="b">
         <v>0</v>
@@ -5681,18 +5686,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="44" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5">
-        <v>305040</v>
+        <v>305030</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5" t="b">
         <v>0</v>
@@ -5704,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -5712,8 +5717,8 @@
       <c r="J7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>4</v>
+      <c r="K7" s="5">
+        <v>30</v>
       </c>
       <c r="L7" s="5" t="b">
         <v>0</v>
@@ -5725,59 +5730,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="5">
+        <v>305040</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="5">
+        <v>305050</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="5">
-        <v>305050</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="5">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <v>39</v>
-      </c>
-      <c r="K8" s="5">
-        <v>6</v>
-      </c>
-      <c r="L8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="5">
-        <v>305051</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D9" s="5">
         <v>11</v>
@@ -5789,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -5798,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="K9" s="5">
         <v>6</v>
@@ -5807,21 +5812,21 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="44" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5">
-        <v>305060</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>65</v>
+        <v>305051</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D10" s="5">
         <v>11</v>
@@ -5833,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
@@ -5842,30 +5847,30 @@
         <v>1</v>
       </c>
       <c r="J10" s="5">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="K10" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="44" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B11" s="5">
-        <v>305061</v>
+        <v>305060</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="5">
         <v>11</v>
@@ -5877,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
@@ -5886,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="K11" s="5">
         <v>12</v>
@@ -5895,21 +5900,21 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="5">
-        <v>305062</v>
+        <v>305061</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="5">
         <v>11</v>
@@ -5921,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -5939,21 +5944,21 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="44" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B13" s="5">
-        <v>305070</v>
+        <v>305062</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="5">
         <v>11</v>
@@ -5974,30 +5979,30 @@
         <v>1</v>
       </c>
       <c r="J13" s="5">
-        <v>53</v>
+        <v>305</v>
       </c>
       <c r="K13" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L13" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="44" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5">
-        <v>305071</v>
+        <v>305070</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5">
         <v>11</v>
@@ -6009,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -6018,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="5">
-        <v>276</v>
+        <v>53</v>
       </c>
       <c r="K14" s="5">
         <v>10</v>
@@ -6027,21 +6032,21 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B15" s="5">
-        <v>305080</v>
+        <v>305071</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="5">
         <v>11</v>
@@ -6053,39 +6058,39 @@
         <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5">
         <v>1</v>
       </c>
       <c r="J15" s="5">
-        <v>65</v>
+        <v>276</v>
       </c>
       <c r="K15" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L15" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="44" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5">
-        <v>305081</v>
+        <v>305080</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5">
         <v>11</v>
@@ -6097,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -6106,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="5">
-        <v>334</v>
+        <v>65</v>
       </c>
       <c r="K16" s="5">
         <v>14</v>
@@ -6115,21 +6120,21 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="44" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="B17" s="5">
-        <v>305090</v>
+        <v>305081</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="5">
         <v>11</v>
@@ -6141,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -6150,42 +6155,42 @@
         <v>1</v>
       </c>
       <c r="J17" s="5">
-        <v>59</v>
+        <v>334</v>
       </c>
       <c r="K17" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L17" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="44" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B18" s="5">
-        <v>305091</v>
+        <v>305090</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="5">
         <v>11</v>
       </c>
       <c r="E18" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -6194,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="5">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="K18" s="5">
         <v>12</v>
@@ -6203,33 +6208,33 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N18" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="44" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5">
-        <v>305100</v>
+        <v>305091</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5">
         <v>11</v>
       </c>
       <c r="E19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G19" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -6238,30 +6243,30 @@
         <v>1</v>
       </c>
       <c r="J19" s="5">
-        <v>53</v>
+        <v>305</v>
       </c>
       <c r="K19" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L19" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N19" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5">
-        <v>305110</v>
+        <v>305100</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5">
         <v>11</v>
@@ -6282,30 +6287,30 @@
         <v>1</v>
       </c>
       <c r="J20" s="5">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K20" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L20" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="44" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B21" s="5">
-        <v>305111</v>
+        <v>305110</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5">
         <v>11</v>
@@ -6317,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -6326,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="K21" s="5">
         <v>20</v>
@@ -6335,21 +6340,21 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="44" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5">
-        <v>305120</v>
+        <v>305111</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="5">
         <v>11</v>
@@ -6361,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
@@ -6370,30 +6375,30 @@
         <v>1</v>
       </c>
       <c r="J22" s="5">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="K22" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L22" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="44" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B23" s="5">
-        <v>305121</v>
+        <v>305120</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="5">
         <v>11</v>
@@ -6405,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
@@ -6414,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="5">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="K23" s="5">
         <v>18</v>
@@ -6423,21 +6428,21 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="44" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5">
-        <v>305130</v>
+        <v>305121</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="5">
         <v>11</v>
@@ -6449,39 +6454,39 @@
         <v>0</v>
       </c>
       <c r="G24" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
       </c>
       <c r="J24" s="5">
-        <v>53</v>
+        <v>386</v>
       </c>
       <c r="K24" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L24" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N24" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="5">
-        <v>305140</v>
+        <v>305130</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5">
         <v>11</v>
@@ -6502,30 +6507,30 @@
         <v>1</v>
       </c>
       <c r="J25" s="5">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K25" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L25" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N25" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="44" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="B26" s="5">
-        <v>305141</v>
+        <v>305140</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5">
         <v>11</v>
@@ -6537,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -6546,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="5">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="K26" s="5">
         <v>20</v>
@@ -6555,21 +6560,21 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N26" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B27" s="5">
-        <v>305150</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>29</v>
+        <v>305141</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="D27" s="5">
         <v>11</v>
@@ -6581,25 +6586,25 @@
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5">
         <v>1</v>
       </c>
       <c r="J27" s="5">
-        <v>88</v>
+        <v>285</v>
       </c>
       <c r="K27" s="5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L27" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N27" s="42" t="s">
         <v>57</v>
@@ -6607,13 +6612,13 @@
     </row>
     <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="44" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B28" s="5">
-        <v>305151</v>
+        <v>305150</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="5">
         <v>11</v>
@@ -6625,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -6634,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="5">
-        <v>318</v>
+        <v>88</v>
       </c>
       <c r="K28" s="5">
         <v>24</v>
@@ -6643,21 +6648,21 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N28" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="44" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="B29" s="5">
-        <v>305160</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>75</v>
+        <v>305151</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D29" s="5">
         <v>11</v>
@@ -6672,36 +6677,36 @@
         <v>2</v>
       </c>
       <c r="H29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="5">
         <v>1</v>
       </c>
       <c r="J29" s="5">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="K29" s="5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B30" s="5">
-        <v>305161</v>
+        <v>305160</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="5">
         <v>11</v>
@@ -6713,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="5">
         <v>0</v>
@@ -6722,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="5">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="K30" s="5">
         <v>15</v>
@@ -6731,21 +6736,21 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N30" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B31" s="5">
-        <v>305162</v>
+        <v>305161</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="5">
         <v>11</v>
@@ -6775,21 +6780,21 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="5">
+        <v>305162</v>
+      </c>
+      <c r="C32" s="43" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" s="5">
-        <v>305170</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>76</v>
       </c>
       <c r="D32" s="5">
         <v>11</v>
@@ -6801,51 +6806,51 @@
         <v>0</v>
       </c>
       <c r="G32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
       </c>
       <c r="J32" s="5">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="K32" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L32" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N32" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="44" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B33" s="5">
-        <v>305171</v>
+        <v>305170</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5">
         <v>11</v>
       </c>
       <c r="E33" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G33" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
@@ -6854,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="5">
-        <v>361</v>
+        <v>70</v>
       </c>
       <c r="K33" s="5">
         <v>16</v>
@@ -6863,77 +6868,77 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N33" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="44" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B34" s="5">
-        <v>305180</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>39</v>
+        <v>305171</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="D34" s="5">
         <v>11</v>
       </c>
       <c r="E34" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G34" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H34" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
       </c>
       <c r="J34" s="5">
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="K34" s="5">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L34" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N34" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="44" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B35" s="5">
-        <v>305181</v>
+        <v>305180</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="5">
         <v>11</v>
       </c>
       <c r="E35" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G35" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -6942,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="5">
-        <v>361</v>
+        <v>100</v>
       </c>
       <c r="K35" s="5">
         <v>30</v>
@@ -6951,68 +6956,68 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N35" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="44" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="B36" s="5">
-        <v>305190</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>91</v>
+        <v>305181</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D36" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E36" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G36" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H36" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>361</v>
+      </c>
+      <c r="K36" s="5">
+        <v>30</v>
       </c>
       <c r="L36" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N36" s="42" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="44" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B37" s="5">
-        <v>305200</v>
+        <v>305190</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D37" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E37" s="5" t="b">
         <v>0</v>
@@ -7024,36 +7029,36 @@
         <v>1</v>
       </c>
       <c r="H37" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" s="5">
-        <v>1</v>
-      </c>
-      <c r="J37" s="5">
-        <v>36</v>
-      </c>
-      <c r="K37" s="5">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="L37" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="N37" s="42" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="44" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B38" s="5">
-        <v>305201</v>
+        <v>305200</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="5">
         <v>12</v>
@@ -7065,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
@@ -7074,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="5">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="K38" s="5">
         <v>5</v>
@@ -7083,21 +7088,21 @@
         <v>1</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N38" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="44" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B39" s="5">
-        <v>305210</v>
+        <v>305201</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D39" s="5">
         <v>12</v>
@@ -7109,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="5">
         <v>0</v>
@@ -7118,30 +7123,30 @@
         <v>1</v>
       </c>
       <c r="J39" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K39" s="5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L39" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N39" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="44" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B40" s="5">
-        <v>305211</v>
+        <v>305210</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="5">
         <v>12</v>
@@ -7153,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
@@ -7162,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="5">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="K40" s="5">
         <v>16</v>
@@ -7171,21 +7176,21 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N40" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="44" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B41" s="5">
-        <v>305220</v>
+        <v>305211</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="5">
         <v>12</v>
@@ -7197,39 +7202,39 @@
         <v>0</v>
       </c>
       <c r="G41" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
       </c>
       <c r="J41" s="5">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="K41" s="5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L41" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N41" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="44" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B42" s="5">
-        <v>305221</v>
+        <v>305220</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="5">
         <v>12</v>
@@ -7241,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -7250,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="5">
-        <v>456</v>
+        <v>88</v>
       </c>
       <c r="K42" s="5">
         <v>24</v>
@@ -7259,21 +7264,21 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N42" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="44" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B43" s="5">
-        <v>305230</v>
+        <v>305221</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" s="5">
         <v>12</v>
@@ -7285,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -7294,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="5">
-        <v>88</v>
+        <v>456</v>
       </c>
       <c r="K43" s="5">
         <v>24</v>
@@ -7303,21 +7308,21 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N43" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" s="5">
-        <v>305240</v>
+        <v>305230</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="5">
         <v>12</v>
@@ -7329,39 +7334,39 @@
         <v>0</v>
       </c>
       <c r="G44" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H44" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
       </c>
       <c r="J44" s="5">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K44" s="5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L44" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N44" s="42" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="44" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B45" s="5">
-        <v>305250</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>41</v>
+        <v>305240</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="D45" s="5">
         <v>12</v>
@@ -7373,39 +7378,39 @@
         <v>0</v>
       </c>
       <c r="G45" s="5">
-        <v>5</v>
-      </c>
-      <c r="H45" s="6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
       </c>
       <c r="J45" s="5">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K45" s="5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L45" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N45" s="42" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B46" s="5">
-        <v>305251</v>
+        <v>305250</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="5">
         <v>12</v>
@@ -7417,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H46" s="6">
         <v>1</v>
@@ -7426,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="5">
-        <v>318</v>
+        <v>88</v>
       </c>
       <c r="K46" s="5">
         <v>24</v>
@@ -7435,77 +7440,77 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N46" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="44" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B47" s="5">
-        <v>305260</v>
+        <v>305251</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D47" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E47" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G47" s="5">
-        <v>7</v>
-      </c>
-      <c r="H47" s="5">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
       </c>
       <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>318</v>
       </c>
       <c r="K47" s="5">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="L47" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N47" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" s="5">
-        <v>305270</v>
+        <v>305260</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D48" s="5">
         <v>4</v>
       </c>
       <c r="E48" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G48" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H48" s="5">
         <v>4</v>
@@ -7523,24 +7528,24 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N48" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="44" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="B49" s="5">
-        <v>305280</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>97</v>
+        <v>305270</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D49" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E49" s="5" t="b">
         <v>0</v>
@@ -7549,25 +7554,25 @@
         <v>0</v>
       </c>
       <c r="G49" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H49" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49" s="5">
-        <v>1</v>
-      </c>
-      <c r="J49" s="5">
-        <v>695</v>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="5">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="L49" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N49" s="42" t="s">
         <v>57</v>
@@ -7575,16 +7580,16 @@
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B50" s="5">
-        <v>305290</v>
+        <v>305280</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D50" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="5" t="b">
         <v>0</v>
@@ -7602,83 +7607,83 @@
         <v>1</v>
       </c>
       <c r="J50" s="5">
-        <v>734</v>
+        <v>695</v>
       </c>
       <c r="K50" s="5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L50" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N50" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51" s="5">
-        <v>305300</v>
+        <v>305290</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D51" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E51" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
       </c>
       <c r="H51" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I51" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J51" s="5">
-        <v>10000</v>
+        <v>734</v>
       </c>
       <c r="K51" s="5">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="L51" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N51" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B52" s="5">
-        <v>305310</v>
+        <v>305300</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D52" s="5">
         <v>5</v>
       </c>
       <c r="E52" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -7699,24 +7704,24 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N52" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="44" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B53" s="5">
-        <v>305320</v>
+        <v>305310</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D53" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E53" s="5" t="b">
         <v>0</v>
@@ -7728,39 +7733,39 @@
         <v>1</v>
       </c>
       <c r="H53" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I53" s="5">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="J53" s="5">
+        <v>10000</v>
       </c>
       <c r="K53" s="5">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="L53" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N53" s="42" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="52" t="s">
-        <v>104</v>
+      <c r="A54" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="B54" s="5">
-        <v>305330</v>
+        <v>305320</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D54" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E54" s="5" t="b">
         <v>0</v>
@@ -7775,115 +7780,139 @@
         <v>2</v>
       </c>
       <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="5">
+        <v>22</v>
+      </c>
+      <c r="L54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="5">
+        <v>305330</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3</v>
+      </c>
+      <c r="E55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5">
+        <v>2</v>
+      </c>
+      <c r="I55" s="5">
         <v>10</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J55" s="5">
         <v>100</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M54" s="5" t="s">
+      <c r="L55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="42" t="s">
+      <c r="N55" s="42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="57"/>
-    </row>
-    <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="5">
+    <row r="56" spans="1:17" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="J56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="K56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="L56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="M56" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="N56" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+    </row>
+    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="5">
         <v>313000</v>
       </c>
-      <c r="C56" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="5">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="5">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5">
+      <c r="C57" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
         <v>2</v>
       </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="5">
-        <v>0</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L56" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N56" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="B57" s="5">
-        <v>313010</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
       <c r="H57" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I57" s="5">
         <v>0</v>
@@ -7891,28 +7920,28 @@
       <c r="J57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="5">
-        <v>6</v>
+      <c r="K57" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N57" s="42" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B58" s="5">
-        <v>313020</v>
+        <v>313010</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
@@ -7950,16 +7979,16 @@
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="44" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="B59" s="5">
-        <v>313030</v>
+        <v>313020</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D59" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="5" t="b">
         <v>0</v>
@@ -7980,7 +8009,7 @@
         <v>4</v>
       </c>
       <c r="K59" s="5">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L59" s="5" t="b">
         <v>0</v>
@@ -7994,16 +8023,16 @@
     </row>
     <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="44" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="B60" s="5">
-        <v>313040</v>
+        <v>313030</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D60" s="5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E60" s="5" t="b">
         <v>0</v>
@@ -8015,36 +8044,36 @@
         <v>1</v>
       </c>
       <c r="H60" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60" s="5">
-        <v>11</v>
-      </c>
-      <c r="J60" s="5">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="K60" s="5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L60" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="N60" s="42" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B61" s="5">
-        <v>313050</v>
+        <v>313040</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D61" s="5">
         <v>11</v>
@@ -8056,10 +8085,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="5">
         <v>11</v>
@@ -8074,21 +8103,21 @@
         <v>0</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N61" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="44" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="B62" s="5">
-        <v>313051</v>
+        <v>313050</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" s="5">
         <v>11</v>
@@ -8100,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -8118,21 +8147,21 @@
         <v>0</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N62" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="44" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="B63" s="5">
-        <v>313060</v>
+        <v>313051</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D63" s="5">
         <v>11</v>
@@ -8153,118 +8182,118 @@
         <v>11</v>
       </c>
       <c r="J63" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K63" s="5">
         <v>8</v>
       </c>
       <c r="L63" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N63" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B64" s="5">
-        <v>313070</v>
+        <v>313060</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D64" s="5">
         <v>11</v>
       </c>
       <c r="E64" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G64" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="5">
         <v>11</v>
       </c>
       <c r="J64" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K64" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L64" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N64" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B65" s="5">
-        <v>313080</v>
+        <v>313070</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D65" s="5">
         <v>11</v>
       </c>
       <c r="E65" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G65" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="5">
         <v>11</v>
       </c>
       <c r="J65" s="5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K65" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L65" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N65" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="44" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B66" s="5">
-        <v>313090</v>
+        <v>313080</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D66" s="5">
         <v>11</v>
@@ -8276,39 +8305,39 @@
         <v>0</v>
       </c>
       <c r="G66" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="5">
         <v>11</v>
       </c>
       <c r="J66" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K66" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L66" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N66" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="44" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="B67" s="5">
-        <v>313091</v>
+        <v>313090</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" s="5">
         <v>11</v>
@@ -8320,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="5">
         <v>1</v>
@@ -8338,21 +8367,21 @@
         <v>0</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N67" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="44" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="B68" s="5">
-        <v>313100</v>
+        <v>313091</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D68" s="5">
         <v>11</v>
@@ -8364,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
@@ -8376,27 +8405,27 @@
         <v>15</v>
       </c>
       <c r="K68" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L68" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N68" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="44" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="B69" s="5">
-        <v>313101</v>
+        <v>313100</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69" s="5">
         <v>11</v>
@@ -8408,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -8426,21 +8455,21 @@
         <v>0</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N69" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="44" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B70" s="5">
-        <v>313110</v>
+        <v>313101</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D70" s="5">
         <v>11</v>
@@ -8452,16 +8481,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="5">
         <v>11</v>
       </c>
       <c r="J70" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K70" s="5">
         <v>16</v>
@@ -8470,21 +8499,21 @@
         <v>0</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N70" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="44" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="B71" s="5">
-        <v>313111</v>
+        <v>313110</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D71" s="5">
         <v>11</v>
@@ -8496,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="5">
         <v>0</v>
@@ -8514,21 +8543,21 @@
         <v>0</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N71" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="44" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B72" s="5">
-        <v>313120</v>
+        <v>313111</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D72" s="5">
         <v>11</v>
@@ -8543,39 +8572,39 @@
         <v>1</v>
       </c>
       <c r="H72" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="5">
         <v>11</v>
       </c>
       <c r="J72" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K72" s="5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L72" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N72" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B73" s="5">
-        <v>313130</v>
+        <v>313120</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D73" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" s="5" t="b">
         <v>0</v>
@@ -8590,33 +8619,33 @@
         <v>1</v>
       </c>
       <c r="I73" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J73" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K73" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L73" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N73" s="42" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B74" s="5">
-        <v>313140</v>
+        <v>313130</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D74" s="5">
         <v>12</v>
@@ -8631,36 +8660,36 @@
         <v>1</v>
       </c>
       <c r="H74" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="5">
         <v>12</v>
       </c>
       <c r="J74" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K74" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L74" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N74" s="42" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B75" s="5">
-        <v>313150</v>
+        <v>313140</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D75" s="5">
         <v>12</v>
@@ -8675,36 +8704,36 @@
         <v>1</v>
       </c>
       <c r="H75" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="5">
         <v>12</v>
       </c>
       <c r="J75" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K75" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L75" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N75" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B76" s="5">
-        <v>313160</v>
+        <v>313150</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D76" s="5">
         <v>12</v>
@@ -8725,30 +8754,30 @@
         <v>12</v>
       </c>
       <c r="J76" s="5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K76" s="5">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L76" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N76" s="42" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B77" s="5">
-        <v>313170</v>
+        <v>313160</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D77" s="5">
         <v>12</v>
@@ -8769,30 +8798,30 @@
         <v>12</v>
       </c>
       <c r="J77" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K77" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L77" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N77" s="42" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="44" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B78" s="5">
-        <v>313180</v>
+        <v>313170</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D78" s="5">
         <v>12</v>
@@ -8813,7 +8842,7 @@
         <v>12</v>
       </c>
       <c r="J78" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K78" s="5">
         <v>18</v>
@@ -8822,21 +8851,21 @@
         <v>0</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N78" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="44" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="B79" s="5">
-        <v>313181</v>
+        <v>313180</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" s="5">
         <v>12</v>
@@ -8848,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H79" s="5">
         <v>1</v>
@@ -8866,21 +8895,21 @@
         <v>0</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N79" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="44" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="B80" s="5">
-        <v>313190</v>
+        <v>313181</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D80" s="5">
         <v>12</v>
@@ -8892,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H80" s="5">
         <v>1</v>
@@ -8901,30 +8930,30 @@
         <v>12</v>
       </c>
       <c r="J80" s="5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K80" s="5">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L80" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N80" s="42" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="44" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B81" s="5">
-        <v>313191</v>
+        <v>313190</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D81" s="5">
         <v>12</v>
@@ -8936,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="5">
         <v>1</v>
@@ -8954,21 +8983,21 @@
         <v>0</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N81" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="44" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="B82" s="5">
-        <v>313200</v>
+        <v>313191</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D82" s="5">
         <v>12</v>
@@ -8980,16 +9009,16 @@
         <v>0</v>
       </c>
       <c r="G82" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="5">
         <v>12</v>
       </c>
       <c r="J82" s="5">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K82" s="5">
         <v>24</v>
@@ -8998,21 +9027,21 @@
         <v>0</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N82" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B83" s="5">
-        <v>313210</v>
+        <v>313200</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D83" s="5">
         <v>12</v>
@@ -9027,36 +9056,36 @@
         <v>1</v>
       </c>
       <c r="H83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" s="5">
         <v>12</v>
       </c>
       <c r="J83" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K83" s="5">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L83" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N83" s="42" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="44" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B84" s="5">
-        <v>313211</v>
+        <v>313210</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D84" s="5">
         <v>12</v>
@@ -9068,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H84" s="5">
         <v>1</v>
@@ -9086,24 +9115,24 @@
         <v>0</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N84" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="44" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B85" s="5">
-        <v>313220</v>
+        <v>313211</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D85" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E85" s="5" t="b">
         <v>0</v>
@@ -9112,39 +9141,39 @@
         <v>0</v>
       </c>
       <c r="G85" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H85" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I85" s="5">
-        <v>0</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="J85" s="5">
+        <v>50</v>
       </c>
       <c r="K85" s="5">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="L85" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N85" s="42" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B86" s="5">
-        <v>313230</v>
+        <v>313220</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D86" s="5">
         <v>4</v>
@@ -9174,24 +9203,24 @@
         <v>0</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N86" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="44" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B87" s="5">
-        <v>313240</v>
+        <v>313230</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D87" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87" s="5" t="b">
         <v>0</v>
@@ -9203,36 +9232,36 @@
         <v>1</v>
       </c>
       <c r="H87" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87" s="5">
-        <v>10</v>
-      </c>
-      <c r="J87" s="5">
-        <v>100</v>
-      </c>
-      <c r="K87" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="K87" s="5">
+        <v>300</v>
+      </c>
       <c r="L87" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N87" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B88" s="5">
-        <v>313250</v>
+        <v>313240</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D88" s="5">
         <v>3</v>
@@ -9262,80 +9291,80 @@
         <v>0</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N88" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="44" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B89" s="5">
-        <v>313260</v>
+        <v>313250</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D89" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E89" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G89" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H89" s="5">
         <v>2</v>
       </c>
       <c r="I89" s="5">
-        <v>0</v>
-      </c>
-      <c r="J89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="5">
+        <v>100</v>
+      </c>
+      <c r="K89" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="5">
-        <v>40</v>
-      </c>
       <c r="L89" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N89" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="44" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B90" s="5">
-        <v>313270</v>
+        <v>313260</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D90" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E90" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G90" s="5">
+        <v>6</v>
+      </c>
+      <c r="H90" s="5">
         <v>2</v>
-      </c>
-      <c r="H90" s="5">
-        <v>0</v>
       </c>
       <c r="I90" s="5">
         <v>0</v>
@@ -9343,31 +9372,31 @@
       <c r="J90" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K90" s="5" t="s">
-        <v>4</v>
+      <c r="K90" s="5">
+        <v>40</v>
       </c>
       <c r="L90" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N90" s="42" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="44" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B91" s="5">
-        <v>313280</v>
+        <v>313270</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D91" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E91" s="5" t="b">
         <v>0</v>
@@ -9376,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" s="5">
         <v>0</v>
@@ -9387,31 +9416,31 @@
       <c r="J91" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="5">
-        <v>10</v>
+      <c r="K91" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N91" s="42" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B92" s="5">
-        <v>313290</v>
+        <v>313280</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D92" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E92" s="5" t="b">
         <v>0</v>
@@ -9423,39 +9452,39 @@
         <v>1</v>
       </c>
       <c r="H92" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="5">
-        <v>11</v>
-      </c>
-      <c r="J92" s="5">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="K92" s="5">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L92" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="N92" s="42" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B93" s="5">
-        <v>313300</v>
+        <v>313290</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D93" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" s="5" t="b">
         <v>0</v>
@@ -9470,36 +9499,36 @@
         <v>1</v>
       </c>
       <c r="I93" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J93" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K93" s="5">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L93" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N93" s="42" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="44" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B94" s="5">
-        <v>313310</v>
+        <v>313300</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D94" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E94" s="5" t="b">
         <v>0</v>
@@ -9511,36 +9540,36 @@
         <v>1</v>
       </c>
       <c r="H94" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I94" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J94" s="5">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="K94" s="5">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="L94" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N94" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B95" s="5">
-        <v>313320</v>
+        <v>313310</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D95" s="5">
         <v>5</v>
@@ -9570,60 +9599,146 @@
         <v>0</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N95" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="44" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B96" s="5">
+        <v>313320</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="5">
+        <v>5</v>
+      </c>
+      <c r="E96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5">
+        <v>1</v>
+      </c>
+      <c r="H96" s="5">
+        <v>4</v>
+      </c>
+      <c r="I96" s="5">
+        <v>20</v>
+      </c>
+      <c r="J96" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K96" s="5">
+        <v>300</v>
+      </c>
+      <c r="L96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N96" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="5">
         <v>313330</v>
       </c>
-      <c r="C96" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="5">
+      <c r="C97" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D97" s="5">
         <v>12</v>
       </c>
-      <c r="E96" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F96" s="5">
-        <v>0</v>
-      </c>
-      <c r="G96" s="5">
+      <c r="E97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5">
         <v>6</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H97" s="5">
         <v>2</v>
       </c>
-      <c r="I96" s="5">
-        <v>0</v>
-      </c>
-      <c r="J96" s="5" t="s">
+      <c r="I97" s="5">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K96" s="5">
-        <v>0</v>
-      </c>
-      <c r="L96" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N96" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="51"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
+      <c r="K97" s="5">
+        <v>0</v>
+      </c>
+      <c r="L97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N97" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="G98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="I98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="J98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="K98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="L98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="M98" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="N98" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="O98" s="55"/>
+      <c r="P98" s="55"/>
+      <c r="Q98" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/1차완성/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D272C-56F1-432C-AF38-856CDFCFB961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED07274-DBC5-40B8-A6DB-5D65A296006C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="5316" yWindow="2376" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -1614,7 +1614,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="208">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4745,15 +4745,6 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4771,6 +4762,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5114,11 +5114,11 @@
   <sheetData>
     <row r="1" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C3" s="10" t="s">
@@ -5393,11 +5393,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5419,7 +5419,7 @@
     <col min="18" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5463,59 +5463,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-    </row>
-    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="5">
+        <v>305000</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="5">
-        <v>305000</v>
+        <v>305001</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -5530,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -5554,18 +5551,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5">
-        <v>305001</v>
+        <v>305010</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
@@ -5577,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -5585,28 +5582,28 @@
       <c r="J4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="5">
+        <v>6</v>
+      </c>
+      <c r="L4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N4" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5">
-        <v>305010</v>
+        <v>305020</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -5642,18 +5639,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="44" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5">
-        <v>305020</v>
+        <v>305030</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5" t="b">
         <v>0</v>
@@ -5674,7 +5671,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L6" s="5" t="b">
         <v>0</v>
@@ -5686,30 +5683,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="44" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B7" s="5">
-        <v>305030</v>
+        <v>305040</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>2</v>
-      </c>
-      <c r="E7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>4</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -5717,8 +5714,8 @@
       <c r="J7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="5">
-        <v>30</v>
+      <c r="K7" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="L7" s="5" t="b">
         <v>0</v>
@@ -5730,18 +5727,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="44" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5">
-        <v>305040</v>
+        <v>305050</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E8" s="5" t="b">
         <v>0</v>
@@ -5753,33 +5750,33 @@
         <v>1</v>
       </c>
       <c r="H8" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>39</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6</v>
       </c>
       <c r="L8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="44" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B9" s="5">
-        <v>305050</v>
+        <v>305051</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>63</v>
@@ -5794,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -5803,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="K9" s="5">
         <v>6</v>
@@ -5818,15 +5815,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="44" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5">
-        <v>305051</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>63</v>
+        <v>305060</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="D10" s="5">
         <v>11</v>
@@ -5838,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
@@ -5847,10 +5844,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="5">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="K10" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L10" s="5" t="b">
         <v>0</v>
@@ -5862,12 +5859,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="44" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B11" s="5">
-        <v>305060</v>
+        <v>305061</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>64</v>
@@ -5882,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
@@ -5891,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="K11" s="5">
         <v>12</v>
@@ -5906,12 +5903,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" s="5">
-        <v>305061</v>
+        <v>305062</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>64</v>
@@ -5926,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -5950,15 +5947,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="44" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5">
-        <v>305062</v>
+        <v>305070</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="5">
         <v>11</v>
@@ -5979,10 +5976,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="5">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="K13" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L13" s="5" t="b">
         <v>0</v>
@@ -5994,12 +5991,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="44" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B14" s="5">
-        <v>305070</v>
+        <v>305071</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>65</v>
@@ -6014,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -6023,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="5">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="K14" s="5">
         <v>10</v>
@@ -6038,15 +6035,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B15" s="5">
-        <v>305071</v>
+        <v>305080</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="5">
         <v>11</v>
@@ -6058,19 +6055,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="5">
         <v>1</v>
       </c>
       <c r="J15" s="5">
-        <v>276</v>
+        <v>65</v>
       </c>
       <c r="K15" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L15" s="5" t="b">
         <v>0</v>
@@ -6082,12 +6079,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="44" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B16" s="5">
-        <v>305080</v>
+        <v>305081</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>66</v>
@@ -6102,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -6111,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="5">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="K16" s="5">
         <v>14</v>
@@ -6128,13 +6125,13 @@
     </row>
     <row r="17" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="44" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B17" s="5">
-        <v>305081</v>
+        <v>305090</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="5">
         <v>11</v>
@@ -6146,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -6155,10 +6152,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="5">
-        <v>334</v>
+        <v>59</v>
       </c>
       <c r="K17" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L17" s="5" t="b">
         <v>0</v>
@@ -6172,10 +6169,10 @@
     </row>
     <row r="18" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="44" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B18" s="5">
-        <v>305090</v>
+        <v>305091</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>67</v>
@@ -6184,13 +6181,13 @@
         <v>11</v>
       </c>
       <c r="E18" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G18" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -6199,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="5">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="K18" s="5">
         <v>12</v>
@@ -6216,25 +6213,25 @@
     </row>
     <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="44" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5">
-        <v>305091</v>
+        <v>305100</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5">
         <v>11</v>
       </c>
       <c r="E19" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -6243,13 +6240,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="5">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="K19" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>46</v>
@@ -6260,13 +6257,13 @@
     </row>
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5">
-        <v>305100</v>
+        <v>305110</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="5">
         <v>11</v>
@@ -6287,13 +6284,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="5">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K20" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L20" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>46</v>
@@ -6304,10 +6301,10 @@
     </row>
     <row r="21" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="44" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B21" s="5">
-        <v>305110</v>
+        <v>305111</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>69</v>
@@ -6322,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -6331,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="K21" s="5">
         <v>20</v>
@@ -6348,13 +6345,13 @@
     </row>
     <row r="22" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="44" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B22" s="5">
-        <v>305111</v>
+        <v>305120</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5">
         <v>11</v>
@@ -6366,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
@@ -6375,10 +6372,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="5">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="K22" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L22" s="5" t="b">
         <v>0</v>
@@ -6392,10 +6389,10 @@
     </row>
     <row r="23" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="44" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B23" s="5">
-        <v>305120</v>
+        <v>305121</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>70</v>
@@ -6410,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
@@ -6419,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="5">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="K23" s="5">
         <v>18</v>
@@ -6436,13 +6433,13 @@
     </row>
     <row r="24" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="44" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="B24" s="5">
-        <v>305121</v>
+        <v>305130</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5">
         <v>11</v>
@@ -6454,19 +6451,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
       </c>
       <c r="J24" s="5">
-        <v>386</v>
+        <v>53</v>
       </c>
       <c r="K24" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L24" s="5" t="b">
         <v>0</v>
@@ -6480,13 +6477,13 @@
     </row>
     <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="5">
-        <v>305130</v>
+        <v>305140</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="5">
         <v>11</v>
@@ -6507,10 +6504,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="5">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K25" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L25" s="5" t="b">
         <v>0</v>
@@ -6519,15 +6516,15 @@
         <v>46</v>
       </c>
       <c r="N25" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="44" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="B26" s="5">
-        <v>305140</v>
+        <v>305141</v>
       </c>
       <c r="C26" s="43" t="s">
         <v>72</v>
@@ -6542,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -6551,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="5">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="K26" s="5">
         <v>20</v>
@@ -6568,13 +6565,13 @@
     </row>
     <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5">
-        <v>305141</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>72</v>
+        <v>305150</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D27" s="5">
         <v>11</v>
@@ -6586,19 +6583,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="5">
         <v>1</v>
       </c>
       <c r="J27" s="5">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="K27" s="5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L27" s="5" t="b">
         <v>0</v>
@@ -6607,15 +6604,15 @@
         <v>46</v>
       </c>
       <c r="N27" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="44" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5">
-        <v>305150</v>
+        <v>305151</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>28</v>
@@ -6630,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -6639,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="5">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="K28" s="5">
         <v>24</v>
@@ -6656,13 +6653,13 @@
     </row>
     <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="44" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B29" s="5">
-        <v>305151</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>305160</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="D29" s="5">
         <v>11</v>
@@ -6677,16 +6674,16 @@
         <v>2</v>
       </c>
       <c r="H29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="5">
         <v>1</v>
       </c>
       <c r="J29" s="5">
-        <v>318</v>
+        <v>67</v>
       </c>
       <c r="K29" s="5">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L29" s="5" t="b">
         <v>0</v>
@@ -6700,10 +6697,10 @@
     </row>
     <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B30" s="5">
-        <v>305160</v>
+        <v>305161</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>74</v>
@@ -6718,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="5">
         <v>0</v>
@@ -6727,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="5">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="K30" s="5">
         <v>15</v>
@@ -6744,10 +6741,10 @@
     </row>
     <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" s="5">
-        <v>305161</v>
+        <v>305162</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>74</v>
@@ -6788,13 +6785,13 @@
     </row>
     <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="44" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5">
-        <v>305162</v>
+        <v>305170</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" s="5">
         <v>11</v>
@@ -6806,19 +6803,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
       </c>
       <c r="J32" s="5">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="K32" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L32" s="5" t="b">
         <v>0</v>
@@ -6832,10 +6829,10 @@
     </row>
     <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="44" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B33" s="5">
-        <v>305170</v>
+        <v>305171</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>75</v>
@@ -6844,13 +6841,13 @@
         <v>11</v>
       </c>
       <c r="E33" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G33" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
@@ -6859,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="5">
-        <v>70</v>
+        <v>361</v>
       </c>
       <c r="K33" s="5">
         <v>16</v>
@@ -6876,37 +6873,37 @@
     </row>
     <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="44" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="B34" s="5">
-        <v>305171</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>75</v>
+        <v>305180</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D34" s="5">
         <v>11</v>
       </c>
       <c r="E34" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G34" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
       </c>
       <c r="J34" s="5">
-        <v>361</v>
+        <v>100</v>
       </c>
       <c r="K34" s="5">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L34" s="5" t="b">
         <v>0</v>
@@ -6915,15 +6912,15 @@
         <v>46</v>
       </c>
       <c r="N34" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="44" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35" s="5">
-        <v>305180</v>
+        <v>305181</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>38</v>
@@ -6932,13 +6929,13 @@
         <v>11</v>
       </c>
       <c r="E35" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G35" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -6947,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="5">
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="K35" s="5">
         <v>30</v>
@@ -6964,60 +6961,60 @@
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="44" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B36" s="5">
-        <v>305181</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>38</v>
+        <v>305190</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="D36" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E36" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G36" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H36" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="5">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5">
-        <v>361</v>
-      </c>
-      <c r="K36" s="5">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="L36" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="N36" s="42" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="44" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B37" s="5">
-        <v>305190</v>
+        <v>305200</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E37" s="5" t="b">
         <v>0</v>
@@ -7029,33 +7026,33 @@
         <v>1</v>
       </c>
       <c r="H37" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>36</v>
+      </c>
+      <c r="K37" s="5">
+        <v>5</v>
       </c>
       <c r="L37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N37" s="42" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="44" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="B38" s="5">
-        <v>305200</v>
+        <v>305201</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>91</v>
@@ -7070,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
@@ -7079,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="5">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="K38" s="5">
         <v>5</v>
@@ -7096,13 +7093,13 @@
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="44" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="B39" s="5">
-        <v>305201</v>
+        <v>305210</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" s="5">
         <v>12</v>
@@ -7114,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="5">
         <v>0</v>
@@ -7123,13 +7120,13 @@
         <v>1</v>
       </c>
       <c r="J39" s="5">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K39" s="5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L39" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>46</v>
@@ -7140,10 +7137,10 @@
     </row>
     <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="44" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B40" s="5">
-        <v>305210</v>
+        <v>305211</v>
       </c>
       <c r="C40" s="43" t="s">
         <v>92</v>
@@ -7158,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
@@ -7167,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="5">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="K40" s="5">
         <v>16</v>
@@ -7184,13 +7181,13 @@
     </row>
     <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="44" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B41" s="5">
-        <v>305211</v>
+        <v>305220</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" s="5">
         <v>12</v>
@@ -7202,19 +7199,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
       </c>
       <c r="J41" s="5">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="K41" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L41" s="5" t="b">
         <v>0</v>
@@ -7228,10 +7225,10 @@
     </row>
     <row r="42" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="44" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B42" s="5">
-        <v>305220</v>
+        <v>305221</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>93</v>
@@ -7246,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -7255,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="5">
-        <v>88</v>
+        <v>456</v>
       </c>
       <c r="K42" s="5">
         <v>24</v>
@@ -7272,13 +7269,13 @@
     </row>
     <row r="43" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="44" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="B43" s="5">
-        <v>305221</v>
+        <v>305230</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D43" s="5">
         <v>12</v>
@@ -7290,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -7299,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="5">
-        <v>456</v>
+        <v>88</v>
       </c>
       <c r="K43" s="5">
         <v>24</v>
@@ -7316,13 +7313,13 @@
     </row>
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" s="5">
-        <v>305230</v>
+        <v>305240</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" s="5">
         <v>12</v>
@@ -7334,19 +7331,19 @@
         <v>0</v>
       </c>
       <c r="G44" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H44" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
       </c>
       <c r="J44" s="5">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K44" s="5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L44" s="5" t="b">
         <v>0</v>
@@ -7355,18 +7352,18 @@
         <v>46</v>
       </c>
       <c r="N44" s="42" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="44" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B45" s="5">
-        <v>305240</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>95</v>
+        <v>305250</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D45" s="5">
         <v>12</v>
@@ -7378,19 +7375,19 @@
         <v>0</v>
       </c>
       <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
       </c>
       <c r="J45" s="5">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" s="5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L45" s="5" t="b">
         <v>0</v>
@@ -7399,15 +7396,15 @@
         <v>46</v>
       </c>
       <c r="N45" s="42" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>305250</v>
+        <v>305251</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>40</v>
@@ -7422,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H46" s="6">
         <v>1</v>
@@ -7431,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="5">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="K46" s="5">
         <v>24</v>
@@ -7448,37 +7445,37 @@
     </row>
     <row r="47" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="44" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B47" s="5">
-        <v>305251</v>
+        <v>305260</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D47" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E47" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G47" s="5">
-        <v>6</v>
-      </c>
-      <c r="H47" s="6">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="H47" s="5">
+        <v>4</v>
       </c>
       <c r="I47" s="5">
-        <v>1</v>
-      </c>
-      <c r="J47" s="5">
-        <v>318</v>
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="5">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="L47" s="5" t="b">
         <v>0</v>
@@ -7487,30 +7484,30 @@
         <v>46</v>
       </c>
       <c r="N47" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48" s="5">
-        <v>305260</v>
+        <v>305270</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" s="5">
         <v>4</v>
       </c>
       <c r="E48" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G48" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H48" s="5">
         <v>4</v>
@@ -7536,16 +7533,16 @@
     </row>
     <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="44" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="B49" s="5">
-        <v>305270</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>31</v>
+        <v>305280</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>96</v>
       </c>
       <c r="D49" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E49" s="5" t="b">
         <v>0</v>
@@ -7554,19 +7551,19 @@
         <v>0</v>
       </c>
       <c r="G49" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H49" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49" s="5">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>695</v>
       </c>
       <c r="K49" s="5">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="L49" s="5" t="b">
         <v>0</v>
@@ -7575,21 +7572,21 @@
         <v>46</v>
       </c>
       <c r="N49" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B50" s="5">
-        <v>305280</v>
+        <v>305290</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D50" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" s="5" t="b">
         <v>0</v>
@@ -7607,10 +7604,10 @@
         <v>1</v>
       </c>
       <c r="J50" s="5">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="K50" s="5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L50" s="5" t="b">
         <v>0</v>
@@ -7624,37 +7621,37 @@
     </row>
     <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51" s="5">
-        <v>305290</v>
+        <v>305300</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D51" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E51" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
       </c>
       <c r="H51" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J51" s="5">
-        <v>734</v>
+        <v>10000</v>
       </c>
       <c r="K51" s="5">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="L51" s="5" t="b">
         <v>0</v>
@@ -7663,27 +7660,27 @@
         <v>46</v>
       </c>
       <c r="N51" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B52" s="5">
-        <v>305300</v>
+        <v>305310</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D52" s="5">
         <v>5</v>
       </c>
       <c r="E52" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -7712,16 +7709,16 @@
     </row>
     <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="44" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B53" s="5">
-        <v>305310</v>
+        <v>305320</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D53" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E53" s="5" t="b">
         <v>0</v>
@@ -7733,16 +7730,16 @@
         <v>1</v>
       </c>
       <c r="H53" s="5">
+        <v>2</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="5">
-        <v>20</v>
-      </c>
-      <c r="J53" s="5">
-        <v>10000</v>
-      </c>
       <c r="K53" s="5">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="L53" s="5" t="b">
         <v>0</v>
@@ -7751,21 +7748,21 @@
         <v>46</v>
       </c>
       <c r="N53" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="44" t="s">
-        <v>102</v>
+      <c r="A54" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="B54" s="5">
-        <v>305320</v>
+        <v>305330</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D54" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E54" s="5" t="b">
         <v>0</v>
@@ -7780,139 +7777,139 @@
         <v>2</v>
       </c>
       <c r="I54" s="5">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="5">
+        <v>100</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="5">
-        <v>22</v>
-      </c>
       <c r="L54" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="G55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="K55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="L55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="M55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="N55" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+    </row>
+    <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="5">
+        <v>313000</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N54" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="5">
-        <v>305330</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="5">
-        <v>3</v>
-      </c>
-      <c r="E55" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1</v>
-      </c>
-      <c r="H55" s="5">
-        <v>2</v>
-      </c>
-      <c r="I55" s="5">
-        <v>10</v>
-      </c>
-      <c r="J55" s="5">
-        <v>100</v>
-      </c>
-      <c r="K55" s="5" t="s">
+      <c r="N56" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="5">
+        <v>313010</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5">
         <v>4</v>
-      </c>
-      <c r="L55" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N55" s="42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="G56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="I56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="J56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="K56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="L56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="M56" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="N56" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-    </row>
-    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="B57" s="5">
-        <v>313000</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5">
-        <v>2</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0</v>
       </c>
       <c r="I57" s="5">
         <v>0</v>
@@ -7920,28 +7917,28 @@
       <c r="J57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="5">
+        <v>6</v>
+      </c>
+      <c r="L57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="N57" s="42" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B58" s="5">
-        <v>313010</v>
+        <v>313020</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
@@ -7979,16 +7976,16 @@
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="44" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="B59" s="5">
-        <v>313020</v>
+        <v>313030</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D59" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="5" t="b">
         <v>0</v>
@@ -8009,7 +8006,7 @@
         <v>4</v>
       </c>
       <c r="K59" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L59" s="5" t="b">
         <v>0</v>
@@ -8023,16 +8020,16 @@
     </row>
     <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="44" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="B60" s="5">
-        <v>313030</v>
+        <v>313040</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D60" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E60" s="5" t="b">
         <v>0</v>
@@ -8044,36 +8041,36 @@
         <v>1</v>
       </c>
       <c r="H60" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60" s="5">
-        <v>0</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="J60" s="5">
+        <v>10</v>
       </c>
       <c r="K60" s="5">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="L60" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N60" s="42" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B61" s="5">
-        <v>313040</v>
+        <v>313050</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D61" s="5">
         <v>11</v>
@@ -8085,10 +8082,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="5">
         <v>11</v>
@@ -8111,10 +8108,10 @@
     </row>
     <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="44" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="B62" s="5">
-        <v>313050</v>
+        <v>313051</v>
       </c>
       <c r="C62" s="43" t="s">
         <v>137</v>
@@ -8129,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -8155,13 +8152,13 @@
     </row>
     <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="44" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="B63" s="5">
-        <v>313051</v>
+        <v>313060</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D63" s="5">
         <v>11</v>
@@ -8182,13 +8179,13 @@
         <v>11</v>
       </c>
       <c r="J63" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K63" s="5">
         <v>8</v>
       </c>
       <c r="L63" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="5" t="s">
         <v>46</v>
@@ -8199,40 +8196,40 @@
     </row>
     <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B64" s="5">
-        <v>313060</v>
+        <v>313070</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D64" s="5">
         <v>11</v>
       </c>
       <c r="E64" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G64" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="5">
         <v>11</v>
       </c>
       <c r="J64" s="5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K64" s="5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L64" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="5" t="s">
         <v>46</v>
@@ -8243,37 +8240,37 @@
     </row>
     <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B65" s="5">
-        <v>313070</v>
+        <v>313080</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D65" s="5">
         <v>11</v>
       </c>
       <c r="E65" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G65" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="5">
         <v>11</v>
       </c>
       <c r="J65" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K65" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L65" s="5" t="b">
         <v>0</v>
@@ -8287,13 +8284,13 @@
     </row>
     <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="44" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B66" s="5">
-        <v>313080</v>
+        <v>313090</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D66" s="5">
         <v>11</v>
@@ -8305,19 +8302,19 @@
         <v>0</v>
       </c>
       <c r="G66" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="5">
         <v>11</v>
       </c>
       <c r="J66" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K66" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L66" s="5" t="b">
         <v>0</v>
@@ -8331,10 +8328,10 @@
     </row>
     <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="44" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="B67" s="5">
-        <v>313090</v>
+        <v>313091</v>
       </c>
       <c r="C67" s="43" t="s">
         <v>145</v>
@@ -8349,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="5">
         <v>1</v>
@@ -8375,13 +8372,13 @@
     </row>
     <row r="68" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="44" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="B68" s="5">
-        <v>313091</v>
+        <v>313100</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D68" s="5">
         <v>11</v>
@@ -8393,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
@@ -8405,7 +8402,7 @@
         <v>15</v>
       </c>
       <c r="K68" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L68" s="5" t="b">
         <v>0</v>
@@ -8419,10 +8416,10 @@
     </row>
     <row r="69" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="44" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B69" s="5">
-        <v>313100</v>
+        <v>313101</v>
       </c>
       <c r="C69" s="43" t="s">
         <v>147</v>
@@ -8437,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -8463,13 +8460,13 @@
     </row>
     <row r="70" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="44" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="B70" s="5">
-        <v>313101</v>
+        <v>313110</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D70" s="5">
         <v>11</v>
@@ -8481,16 +8478,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="5">
         <v>11</v>
       </c>
       <c r="J70" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K70" s="5">
         <v>16</v>
@@ -8507,10 +8504,10 @@
     </row>
     <row r="71" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="44" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B71" s="5">
-        <v>313110</v>
+        <v>313111</v>
       </c>
       <c r="C71" s="43" t="s">
         <v>149</v>
@@ -8525,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="5">
         <v>0</v>
@@ -8551,13 +8548,13 @@
     </row>
     <row r="72" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="44" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="B72" s="5">
-        <v>313111</v>
+        <v>313120</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D72" s="5">
         <v>11</v>
@@ -8572,16 +8569,16 @@
         <v>1</v>
       </c>
       <c r="H72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="5">
         <v>11</v>
       </c>
       <c r="J72" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K72" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L72" s="5" t="b">
         <v>0</v>
@@ -8595,16 +8592,16 @@
     </row>
     <row r="73" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="44" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B73" s="5">
-        <v>313120</v>
+        <v>313130</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D73" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E73" s="5" t="b">
         <v>0</v>
@@ -8619,13 +8616,13 @@
         <v>1</v>
       </c>
       <c r="I73" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J73" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K73" s="5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L73" s="5" t="b">
         <v>0</v>
@@ -8634,18 +8631,18 @@
         <v>46</v>
       </c>
       <c r="N73" s="42" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B74" s="5">
-        <v>313130</v>
+        <v>313140</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D74" s="5">
         <v>12</v>
@@ -8660,36 +8657,36 @@
         <v>1</v>
       </c>
       <c r="H74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="5">
         <v>12</v>
       </c>
       <c r="J74" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K74" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L74" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="5" t="s">
         <v>46</v>
       </c>
       <c r="N74" s="42" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B75" s="5">
-        <v>313140</v>
+        <v>313150</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D75" s="5">
         <v>12</v>
@@ -8704,19 +8701,19 @@
         <v>1</v>
       </c>
       <c r="H75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="5">
         <v>12</v>
       </c>
       <c r="J75" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K75" s="5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L75" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" s="5" t="s">
         <v>46</v>
@@ -8727,13 +8724,13 @@
     </row>
     <row r="76" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="44" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B76" s="5">
-        <v>313150</v>
+        <v>313160</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D76" s="5">
         <v>12</v>
@@ -8754,10 +8751,10 @@
         <v>12</v>
       </c>
       <c r="J76" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K76" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L76" s="5" t="b">
         <v>0</v>
@@ -8766,18 +8763,18 @@
         <v>46</v>
       </c>
       <c r="N76" s="42" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B77" s="5">
-        <v>313160</v>
+        <v>313170</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D77" s="5">
         <v>12</v>
@@ -8798,10 +8795,10 @@
         <v>12</v>
       </c>
       <c r="J77" s="5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K77" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L77" s="5" t="b">
         <v>0</v>
@@ -8810,18 +8807,18 @@
         <v>46</v>
       </c>
       <c r="N77" s="42" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B78" s="5">
-        <v>313170</v>
+        <v>313180</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D78" s="5">
         <v>12</v>
@@ -8842,7 +8839,7 @@
         <v>12</v>
       </c>
       <c r="J78" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K78" s="5">
         <v>18</v>
@@ -8859,10 +8856,10 @@
     </row>
     <row r="79" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="44" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="B79" s="5">
-        <v>313180</v>
+        <v>313181</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>163</v>
@@ -8877,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H79" s="5">
         <v>1</v>
@@ -8903,13 +8900,13 @@
     </row>
     <row r="80" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="44" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B80" s="5">
-        <v>313181</v>
+        <v>313190</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D80" s="5">
         <v>12</v>
@@ -8921,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H80" s="5">
         <v>1</v>
@@ -8930,10 +8927,10 @@
         <v>12</v>
       </c>
       <c r="J80" s="5">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K80" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L80" s="5" t="b">
         <v>0</v>
@@ -8942,15 +8939,15 @@
         <v>46</v>
       </c>
       <c r="N80" s="42" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="44" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B81" s="5">
-        <v>313190</v>
+        <v>313191</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>165</v>
@@ -8965,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="5">
         <v>1</v>
@@ -8991,13 +8988,13 @@
     </row>
     <row r="82" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="44" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="B82" s="5">
-        <v>313191</v>
+        <v>313200</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D82" s="5">
         <v>12</v>
@@ -9009,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="G82" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="5">
         <v>12</v>
       </c>
       <c r="J82" s="5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K82" s="5">
         <v>24</v>
@@ -9035,13 +9032,13 @@
     </row>
     <row r="83" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B83" s="5">
-        <v>313200</v>
+        <v>313210</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D83" s="5">
         <v>12</v>
@@ -9056,16 +9053,16 @@
         <v>1</v>
       </c>
       <c r="H83" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="5">
         <v>12</v>
       </c>
       <c r="J83" s="5">
+        <v>50</v>
+      </c>
+      <c r="K83" s="5">
         <v>40</v>
-      </c>
-      <c r="K83" s="5">
-        <v>24</v>
       </c>
       <c r="L83" s="5" t="b">
         <v>0</v>
@@ -9074,15 +9071,15 @@
         <v>46</v>
       </c>
       <c r="N83" s="42" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="44" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="B84" s="5">
-        <v>313210</v>
+        <v>313211</v>
       </c>
       <c r="C84" s="43" t="s">
         <v>169</v>
@@ -9097,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H84" s="5">
         <v>1</v>
@@ -9123,16 +9120,16 @@
     </row>
     <row r="85" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="44" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B85" s="5">
-        <v>313211</v>
+        <v>313220</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D85" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E85" s="5" t="b">
         <v>0</v>
@@ -9141,19 +9138,19 @@
         <v>0</v>
       </c>
       <c r="G85" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H85" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I85" s="5">
-        <v>12</v>
-      </c>
-      <c r="J85" s="5">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="K85" s="5">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="L85" s="5" t="b">
         <v>0</v>
@@ -9162,18 +9159,18 @@
         <v>46</v>
       </c>
       <c r="N85" s="42" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B86" s="5">
-        <v>313220</v>
+        <v>313230</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D86" s="5">
         <v>4</v>
@@ -9211,37 +9208,37 @@
     </row>
     <row r="87" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="44" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="B87" s="5">
-        <v>313230</v>
+        <v>313240</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D87" s="5">
+        <v>3</v>
+      </c>
+      <c r="E87" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2</v>
+      </c>
+      <c r="I87" s="5">
+        <v>10</v>
+      </c>
+      <c r="J87" s="5">
+        <v>100</v>
+      </c>
+      <c r="K87" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="E87" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="5">
-        <v>0</v>
-      </c>
-      <c r="G87" s="5">
-        <v>1</v>
-      </c>
-      <c r="H87" s="5">
-        <v>4</v>
-      </c>
-      <c r="I87" s="5">
-        <v>0</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K87" s="5">
-        <v>300</v>
       </c>
       <c r="L87" s="5" t="b">
         <v>0</v>
@@ -9255,13 +9252,13 @@
     </row>
     <row r="88" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B88" s="5">
-        <v>313240</v>
+        <v>313250</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D88" s="5">
         <v>3</v>
@@ -9299,37 +9296,37 @@
     </row>
     <row r="89" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="44" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B89" s="5">
-        <v>313250</v>
+        <v>313260</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D89" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E89" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G89" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H89" s="5">
         <v>2</v>
       </c>
       <c r="I89" s="5">
-        <v>10</v>
-      </c>
-      <c r="J89" s="5">
-        <v>100</v>
-      </c>
-      <c r="K89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="K89" s="5">
+        <v>40</v>
       </c>
       <c r="L89" s="5" t="b">
         <v>0</v>
@@ -9343,28 +9340,28 @@
     </row>
     <row r="90" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="44" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B90" s="5">
-        <v>313260</v>
+        <v>313270</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D90" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E90" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G90" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H90" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" s="5">
         <v>0</v>
@@ -9372,8 +9369,8 @@
       <c r="J90" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K90" s="5">
-        <v>40</v>
+      <c r="K90" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="L90" s="5" t="b">
         <v>0</v>
@@ -9382,21 +9379,21 @@
         <v>46</v>
       </c>
       <c r="N90" s="42" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="44" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B91" s="5">
-        <v>313270</v>
+        <v>313280</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D91" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E91" s="5" t="b">
         <v>0</v>
@@ -9405,10 +9402,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="5">
+        <v>1</v>
+      </c>
+      <c r="H91" s="5">
         <v>2</v>
-      </c>
-      <c r="H91" s="5">
-        <v>0</v>
       </c>
       <c r="I91" s="5">
         <v>0</v>
@@ -9416,31 +9413,31 @@
       <c r="J91" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="5" t="s">
+      <c r="K91" s="5">
+        <v>10</v>
+      </c>
+      <c r="L91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="N91" s="42" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B92" s="5">
-        <v>313280</v>
+        <v>313290</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D92" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E92" s="5" t="b">
         <v>0</v>
@@ -9452,39 +9449,39 @@
         <v>1</v>
       </c>
       <c r="H92" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" s="5">
-        <v>0</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="J92" s="5">
+        <v>40</v>
       </c>
       <c r="K92" s="5">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="L92" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N92" s="42" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="44" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B93" s="5">
-        <v>313290</v>
+        <v>313300</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D93" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93" s="5" t="b">
         <v>0</v>
@@ -9499,13 +9496,13 @@
         <v>1</v>
       </c>
       <c r="I93" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J93" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K93" s="5">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L93" s="5" t="b">
         <v>0</v>
@@ -9514,21 +9511,21 @@
         <v>46</v>
       </c>
       <c r="N93" s="42" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="44" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B94" s="5">
-        <v>313300</v>
+        <v>313310</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D94" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E94" s="5" t="b">
         <v>0</v>
@@ -9540,16 +9537,16 @@
         <v>1</v>
       </c>
       <c r="H94" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J94" s="5">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="K94" s="5">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="L94" s="5" t="b">
         <v>0</v>
@@ -9563,13 +9560,13 @@
     </row>
     <row r="95" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="44" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B95" s="5">
-        <v>313310</v>
+        <v>313320</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D95" s="5">
         <v>5</v>
@@ -9607,16 +9604,16 @@
     </row>
     <row r="96" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B96" s="5">
-        <v>313320</v>
+        <v>313330</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D96" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E96" s="5" t="b">
         <v>0</v>
@@ -9625,19 +9622,19 @@
         <v>0</v>
       </c>
       <c r="G96" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H96" s="5">
+        <v>2</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I96" s="5">
-        <v>20</v>
-      </c>
-      <c r="J96" s="5">
-        <v>10000</v>
-      </c>
       <c r="K96" s="5">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L96" s="5" t="b">
         <v>0</v>
@@ -9649,96 +9646,52 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="5">
-        <v>313330</v>
-      </c>
-      <c r="C97" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="D97" s="5">
-        <v>12</v>
-      </c>
-      <c r="E97" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" s="5">
-        <v>0</v>
-      </c>
-      <c r="G97" s="5">
-        <v>6</v>
-      </c>
-      <c r="H97" s="5">
-        <v>2</v>
-      </c>
-      <c r="I97" s="5">
-        <v>0</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K97" s="5">
-        <v>0</v>
-      </c>
-      <c r="L97" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N97" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="51" t="s">
+    <row r="97" spans="1:17" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="B98" s="52" t="s">
+      <c r="B97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="C98" s="53" t="s">
+      <c r="C97" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="D98" s="52" t="s">
+      <c r="D97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="E98" s="52" t="s">
+      <c r="E97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="F98" s="52" t="s">
+      <c r="F97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="G98" s="52" t="s">
+      <c r="G97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="H98" s="52" t="s">
+      <c r="H97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="I98" s="52" t="s">
+      <c r="I97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="J98" s="52" t="s">
+      <c r="J97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="K98" s="52" t="s">
+      <c r="K97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="L98" s="52" t="s">
+      <c r="L97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="M98" s="52" t="s">
+      <c r="M97" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="N98" s="54" t="s">
+      <c r="N97" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="O98" s="55"/>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="55"/>
+      <c r="O97" s="52"/>
+      <c r="P97" s="52"/>
+      <c r="Q97" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/1차완성/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED07274-DBC5-40B8-A6DB-5D65A296006C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD1CA3D-D026-411A-9A02-3677BE3E8D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5316" yWindow="2376" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -5095,7 +5095,7 @@
   <dimension ref="B1:Q19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B1" sqref="B1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5396,8 +5396,8 @@
   <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/로스트아크/데이터테이블/1차완성/Skill_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Skill_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD1CA3D-D026-411A-9A02-3677BE3E8D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18772810-44A7-4A83-AABA-8B400935024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -2585,6 +2585,1404 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">슈퍼 아머   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 없음 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 경직 면역 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 피격 이상 면역 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 상태 이상 면역 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 피격 이상 면역 &amp; 상태 이상 면역</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카운터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 가능 여부  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0) : 카운터 불가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1) : 카운터 가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>공격 타입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 비 방향성 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 백어택 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 헤드어택</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">스킬 사용에 필요한 자원 유형   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 없음 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 마나 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 배터리(스카우터 전용) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 아이덴티티 게이지 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 아이덴티티 게이지 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 아이덴티티 게이지 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 초각성 게이지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 마나+아이덴티티 게이지 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 마나+아이덴티티 게이지 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 마나+아이덴티티 게이지 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_06</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_07</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_08</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_09</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_10</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_11</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_12</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_13</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_14</t>
+  </si>
+  <si>
+    <t>공의연무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_16</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_17</t>
+  </si>
+  <si>
+    <t>풍진격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열공참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회선창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일섬각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철량추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡출수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반월섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연환섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질풍참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나선창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사두룡격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉열파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유성강천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절룡세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_19</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_20</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_21</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_22</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_23</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_24</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_28</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_29</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_30</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_31</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_32</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_33</t>
+  </si>
+  <si>
+    <t>연가비기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가심공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격 [속성 강타]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍진격 [대회전]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍진격 [내려치기]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열공참 [단극회전]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 [난무 스탠스]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 [집중 스탠스]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동기 [난무 스탠스]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동기 [집중 스탠스]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠스 변경 [집중-&gt;난무]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠스 변경 [난무-&gt;집중]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹룡난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡필살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가창식: 은하비섬창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가창식: 마룡합일격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회선창 [연속 회전]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일섬각 [공중 강습]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡출수 [번개 회전]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반월섬 [돌격 베기]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질풍참 [용맹한 행동]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선풍참혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선풍참혼 [협력 강화]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선풍참혼 [신속 전진]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공의연무 [날이 선 일격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나선창 [어깨 치기]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사두룡격 [난폭한 찌르기]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉열파 [공파섬]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_00</t>
+  </si>
+  <si>
+    <t>BREAKER_01</t>
+  </si>
+  <si>
+    <t>BREAKER_02</t>
+  </si>
+  <si>
+    <t>BREAKER_03</t>
+  </si>
+  <si>
+    <t>BREAKER_04</t>
+  </si>
+  <si>
+    <t>권왕의 진격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_05</t>
+  </si>
+  <si>
+    <t>연쇄 돌풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_06</t>
+  </si>
+  <si>
+    <t>비뢰격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_07</t>
+  </si>
+  <si>
+    <t>유성낙하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_08</t>
+  </si>
+  <si>
+    <t>즉결타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_09</t>
+  </si>
+  <si>
+    <t>연속전격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_10</t>
+  </si>
+  <si>
+    <t>백렬권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_11</t>
+  </si>
+  <si>
+    <t>금강난격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_12</t>
+  </si>
+  <si>
+    <t>징벌의 파도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_13</t>
+  </si>
+  <si>
+    <t>척결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_14</t>
+  </si>
+  <si>
+    <t>휩쓸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_15</t>
+  </si>
+  <si>
+    <t>비상격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_16</t>
+  </si>
+  <si>
+    <t>대지파쇄권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_17</t>
+  </si>
+  <si>
+    <t>진 파공권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_18</t>
+  </si>
+  <si>
+    <t>청월난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_19</t>
+  </si>
+  <si>
+    <t>연의붕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_20</t>
+  </si>
+  <si>
+    <t>천기심권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_21</t>
+  </si>
+  <si>
+    <t>파천섬광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_22</t>
+  </si>
+  <si>
+    <t>천문격파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_23</t>
+  </si>
+  <si>
+    <t>환무월명권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_26</t>
+  </si>
+  <si>
+    <t>권왕십이식 : 낙화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_27</t>
+  </si>
+  <si>
+    <t>BREAKER_28</t>
+  </si>
+  <si>
+    <t>호신투기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_29</t>
+  </si>
+  <si>
+    <t>천왕지무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_30</t>
+  </si>
+  <si>
+    <t>성운멸쇄권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_31</t>
+  </si>
+  <si>
+    <t>천견지종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_32</t>
+  </si>
+  <si>
+    <t>일월신권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BREAKER_33</t>
+  </si>
+  <si>
+    <t>권왕십이식 : 풍랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레이커 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 기본공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연쇄 돌풍 [휘몰아치기]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속전격 [연속 동작]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백렬권 [일순 연격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금강난격 [확정된 연격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청월난무 [지면 강타]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연의붕권 [난타]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파천섬광 [완벽한 일격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권왕태세 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수라 상태 진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획용 스킬 설명 (실제 데이터에는 적용 X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스킬 시전 가능 거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 제자리 시전 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: N(m)이내의 거리</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>마우스 지점 설정 여부</t>
     </r>
     <r>
@@ -2653,7 +4051,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">// </t>
+      <t xml:space="preserve">/ </t>
     </r>
     <r>
       <rPr>
@@ -2678,1384 +4076,6 @@
       </rPr>
       <t>(1) : 마우스 커서 = 스킬 사용 지점</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">슈퍼 아머   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 없음 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 경직 면역 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 피격 이상 면역 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 상태 이상 면역 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 피격 이상 면역 &amp; 상태 이상 면역</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카운터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 가능 여부  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0) : 카운터 불가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TRUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1) : 카운터 가능</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>공격 타입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 비 방향성 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 백어택 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 헤드어택</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">스킬 시전 가능 거리   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 제자리 시전 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.1~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: N(m)이내의 거리</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANCEMASTER_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기상기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANCEMASTER_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">스킬 사용에 필요한 자원 유형   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 없음 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 마나 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 배터리(스카우터 전용) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 아이덴티티 게이지 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 아이덴티티 게이지 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 아이덴티티 게이지 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 초각성 게이지
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 마나+아이덴티티 게이지 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 마나+아이덴티티 게이지 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 마나+아이덴티티 게이지 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이연격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANCEMASTER_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANCEMASTER_06</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_07</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_08</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_09</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_10</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_11</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_12</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_13</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_14</t>
-  </si>
-  <si>
-    <t>공의연무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANCEMASTER_16</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_17</t>
-  </si>
-  <si>
-    <t>풍진격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열공참</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회선창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일섬각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철량추</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡출수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반월섬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연환섬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질풍참</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나선창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사두룡격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>굉열파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유성강천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>절룡세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANCEMASTER_19</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_20</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_21</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_22</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_23</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_24</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_28</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_29</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_30</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_31</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_32</t>
-  </si>
-  <si>
-    <t>LANCEMASTER_33</t>
-  </si>
-  <si>
-    <t>연가비기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연가심공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이연격 [속성 강타]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍진격 [대회전]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍진격 [내려치기]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열공참 [단극회전]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 [난무 스탠스]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 [집중 스탠스]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동기 [난무 스탠스]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동기 [집중 스탠스]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠스 변경 [집중-&gt;난무]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠스 변경 [난무-&gt;집중]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맹룡난무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적룡필살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연가창식: 은하비섬창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연가창식: 마룡합일격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회선창 [연속 회전]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일섬각 [공중 강습]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡출수 [번개 회전]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반월섬 [돌격 베기]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질풍참 [용맹한 행동]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선풍참혼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선풍참혼 [협력 강화]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선풍참혼 [신속 전진]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공의연무 [날이 선 일격]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나선창 [어깨 치기]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사두룡격 [난폭한 찌르기]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>굉열파 [공파섬]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_00</t>
-  </si>
-  <si>
-    <t>BREAKER_01</t>
-  </si>
-  <si>
-    <t>BREAKER_02</t>
-  </si>
-  <si>
-    <t>BREAKER_03</t>
-  </si>
-  <si>
-    <t>BREAKER_04</t>
-  </si>
-  <si>
-    <t>권왕의 진격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_05</t>
-  </si>
-  <si>
-    <t>연쇄 돌풍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_06</t>
-  </si>
-  <si>
-    <t>비뢰격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_07</t>
-  </si>
-  <si>
-    <t>유성낙하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_08</t>
-  </si>
-  <si>
-    <t>즉결타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_09</t>
-  </si>
-  <si>
-    <t>연속전격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_10</t>
-  </si>
-  <si>
-    <t>백렬권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_11</t>
-  </si>
-  <si>
-    <t>금강난격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_12</t>
-  </si>
-  <si>
-    <t>징벌의 파도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_13</t>
-  </si>
-  <si>
-    <t>척결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_14</t>
-  </si>
-  <si>
-    <t>휩쓸기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_15</t>
-  </si>
-  <si>
-    <t>비상격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_16</t>
-  </si>
-  <si>
-    <t>대지파쇄권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_17</t>
-  </si>
-  <si>
-    <t>진 파공권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_18</t>
-  </si>
-  <si>
-    <t>청월난무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_19</t>
-  </si>
-  <si>
-    <t>연의붕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_20</t>
-  </si>
-  <si>
-    <t>천기심권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_21</t>
-  </si>
-  <si>
-    <t>파천섬광</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_22</t>
-  </si>
-  <si>
-    <t>천문격파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_23</t>
-  </si>
-  <si>
-    <t>환무월명권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_26</t>
-  </si>
-  <si>
-    <t>권왕십이식 : 낙화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_27</t>
-  </si>
-  <si>
-    <t>BREAKER_28</t>
-  </si>
-  <si>
-    <t>호신투기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_29</t>
-  </si>
-  <si>
-    <t>천왕지무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_30</t>
-  </si>
-  <si>
-    <t>성운멸쇄권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_31</t>
-  </si>
-  <si>
-    <t>천견지종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_32</t>
-  </si>
-  <si>
-    <t>일월신권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BREAKER_33</t>
-  </si>
-  <si>
-    <t>권왕십이식 : 풍랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브레이커 기본 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수라 상태 이동기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수라 상태 기본공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연쇄 돌풍 [휘몰아치기]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속전격 [연속 동작]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백렬권 [일순 연격]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금강난격 [확정된 연격]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청월난무 [지면 강타]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연의붕권 [난타]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파천섬광 [완벽한 일격]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권왕태세 진입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수라 상태 진입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획용 스킬 설명 (실제 데이터에는 적용 X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5094,8 +5114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:Q19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5139,13 +5159,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -5214,7 +5234,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -5229,7 +5249,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>55</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -5260,7 +5280,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="39.6" x14ac:dyDescent="0.4">
@@ -5275,7 +5295,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -5320,7 +5340,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
@@ -5350,7 +5370,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -5395,7 +5415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:N84"/>
     </sheetView>
@@ -5465,7 +5485,7 @@
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="5">
         <v>305000</v>
@@ -5509,7 +5529,7 @@
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="5">
         <v>305001</v>
@@ -5553,7 +5573,7 @@
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="5">
         <v>305010</v>
@@ -5597,7 +5617,7 @@
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5">
         <v>305020</v>
@@ -5641,13 +5661,13 @@
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5">
         <v>305030</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -5685,13 +5705,13 @@
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="5">
         <v>305040</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
@@ -5729,13 +5749,13 @@
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5">
         <v>305050</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="5">
         <v>11</v>
@@ -5768,18 +5788,18 @@
         <v>46</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5">
         <v>305051</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="5">
         <v>11</v>
@@ -5812,18 +5832,18 @@
         <v>46</v>
       </c>
       <c r="N9" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5">
         <v>305060</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="5">
         <v>11</v>
@@ -5856,18 +5876,18 @@
         <v>46</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="5">
         <v>305061</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="5">
         <v>11</v>
@@ -5900,18 +5920,18 @@
         <v>46</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="5">
         <v>305062</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5">
         <v>11</v>
@@ -5944,18 +5964,18 @@
         <v>46</v>
       </c>
       <c r="N12" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="5">
         <v>305070</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5">
         <v>11</v>
@@ -5988,18 +6008,18 @@
         <v>46</v>
       </c>
       <c r="N13" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="5">
         <v>305071</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5">
         <v>11</v>
@@ -6032,18 +6052,18 @@
         <v>46</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5">
         <v>305080</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="5">
         <v>11</v>
@@ -6076,18 +6096,18 @@
         <v>46</v>
       </c>
       <c r="N15" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="5">
         <v>305081</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5">
         <v>11</v>
@@ -6120,18 +6140,18 @@
         <v>46</v>
       </c>
       <c r="N16" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5">
         <v>305090</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5">
         <v>11</v>
@@ -6164,18 +6184,18 @@
         <v>46</v>
       </c>
       <c r="N17" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5">
         <v>305091</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="5">
         <v>11</v>
@@ -6208,18 +6228,18 @@
         <v>46</v>
       </c>
       <c r="N18" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5">
         <v>305100</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="5">
         <v>11</v>
@@ -6252,18 +6272,18 @@
         <v>46</v>
       </c>
       <c r="N19" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5">
         <v>305110</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5">
         <v>11</v>
@@ -6296,18 +6316,18 @@
         <v>46</v>
       </c>
       <c r="N20" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" s="5">
         <v>305111</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5">
         <v>11</v>
@@ -6340,18 +6360,18 @@
         <v>46</v>
       </c>
       <c r="N21" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5">
         <v>305120</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5">
         <v>11</v>
@@ -6384,18 +6404,18 @@
         <v>46</v>
       </c>
       <c r="N22" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B23" s="5">
         <v>305121</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5">
         <v>11</v>
@@ -6428,18 +6448,18 @@
         <v>46</v>
       </c>
       <c r="N23" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5">
         <v>305130</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="5">
         <v>11</v>
@@ -6472,18 +6492,18 @@
         <v>46</v>
       </c>
       <c r="N24" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="5">
         <v>305140</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5">
         <v>11</v>
@@ -6516,18 +6536,18 @@
         <v>46</v>
       </c>
       <c r="N25" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B26" s="5">
         <v>305141</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="5">
         <v>11</v>
@@ -6560,7 +6580,7 @@
         <v>46</v>
       </c>
       <c r="N26" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -6604,7 +6624,7 @@
         <v>46</v>
       </c>
       <c r="N27" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -6648,18 +6668,18 @@
         <v>46</v>
       </c>
       <c r="N28" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B29" s="5">
         <v>305160</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="5">
         <v>11</v>
@@ -6692,18 +6712,18 @@
         <v>46</v>
       </c>
       <c r="N29" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B30" s="5">
         <v>305161</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" s="5">
         <v>11</v>
@@ -6736,18 +6756,18 @@
         <v>46</v>
       </c>
       <c r="N30" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B31" s="5">
         <v>305162</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="5">
         <v>11</v>
@@ -6780,18 +6800,18 @@
         <v>46</v>
       </c>
       <c r="N31" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="5">
         <v>305170</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32" s="5">
         <v>11</v>
@@ -6824,18 +6844,18 @@
         <v>46</v>
       </c>
       <c r="N32" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="5">
         <v>305171</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="5">
         <v>11</v>
@@ -6868,7 +6888,7 @@
         <v>46</v>
       </c>
       <c r="N33" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -6912,7 +6932,7 @@
         <v>46</v>
       </c>
       <c r="N34" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -6956,18 +6976,18 @@
         <v>46</v>
       </c>
       <c r="N35" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B36" s="5">
         <v>305190</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="5">
         <v>3</v>
@@ -7005,13 +7025,13 @@
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" s="5">
         <v>305200</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" s="5">
         <v>12</v>
@@ -7044,18 +7064,18 @@
         <v>46</v>
       </c>
       <c r="N37" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B38" s="5">
         <v>305201</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D38" s="5">
         <v>12</v>
@@ -7088,18 +7108,18 @@
         <v>46</v>
       </c>
       <c r="N38" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="5">
         <v>305210</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D39" s="5">
         <v>12</v>
@@ -7132,18 +7152,18 @@
         <v>46</v>
       </c>
       <c r="N39" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B40" s="5">
         <v>305211</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D40" s="5">
         <v>12</v>
@@ -7176,18 +7196,18 @@
         <v>46</v>
       </c>
       <c r="N40" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" s="5">
         <v>305220</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41" s="5">
         <v>12</v>
@@ -7220,18 +7240,18 @@
         <v>46</v>
       </c>
       <c r="N41" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B42" s="5">
         <v>305221</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D42" s="5">
         <v>12</v>
@@ -7264,18 +7284,18 @@
         <v>46</v>
       </c>
       <c r="N42" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" s="5">
         <v>305230</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="5">
         <v>12</v>
@@ -7308,18 +7328,18 @@
         <v>46</v>
       </c>
       <c r="N43" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="5">
         <v>305240</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44" s="5">
         <v>12</v>
@@ -7352,7 +7372,7 @@
         <v>46</v>
       </c>
       <c r="N44" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -7396,7 +7416,7 @@
         <v>46</v>
       </c>
       <c r="N45" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -7440,7 +7460,7 @@
         <v>46</v>
       </c>
       <c r="N46" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -7484,7 +7504,7 @@
         <v>46</v>
       </c>
       <c r="N47" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
@@ -7528,18 +7548,18 @@
         <v>46</v>
       </c>
       <c r="N48" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" s="5">
         <v>305280</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D49" s="5">
         <v>11</v>
@@ -7572,18 +7592,18 @@
         <v>46</v>
       </c>
       <c r="N49" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B50" s="5">
         <v>305290</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50" s="5">
         <v>12</v>
@@ -7616,18 +7636,18 @@
         <v>46</v>
       </c>
       <c r="N50" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51" s="5">
         <v>305300</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D51" s="5">
         <v>5</v>
@@ -7660,18 +7680,18 @@
         <v>46</v>
       </c>
       <c r="N51" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B52" s="5">
         <v>305310</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52" s="5">
         <v>5</v>
@@ -7704,18 +7724,18 @@
         <v>46</v>
       </c>
       <c r="N52" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" s="5">
         <v>305320</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" s="5">
         <v>11</v>
@@ -7748,18 +7768,18 @@
         <v>46</v>
       </c>
       <c r="N53" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="5">
         <v>305330</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="5">
         <v>3</v>
@@ -7797,46 +7817,46 @@
     </row>
     <row r="55" spans="1:17" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M55" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N55" s="51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O55" s="52"/>
       <c r="P55" s="52"/>
@@ -7844,13 +7864,13 @@
     </row>
     <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B56" s="5">
         <v>313000</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D56" s="5">
         <v>0</v>
@@ -7883,18 +7903,18 @@
         <v>46</v>
       </c>
       <c r="N56" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B57" s="5">
         <v>313010</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -7932,13 +7952,13 @@
     </row>
     <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B58" s="5">
         <v>313020</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
@@ -7976,13 +7996,13 @@
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5">
         <v>313030</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D59" s="5">
         <v>2</v>
@@ -8020,13 +8040,13 @@
     </row>
     <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B60" s="5">
         <v>313040</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D60" s="5">
         <v>11</v>
@@ -8059,18 +8079,18 @@
         <v>46</v>
       </c>
       <c r="N60" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B61" s="5">
         <v>313050</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D61" s="5">
         <v>11</v>
@@ -8103,18 +8123,18 @@
         <v>46</v>
       </c>
       <c r="N61" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B62" s="5">
         <v>313051</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D62" s="5">
         <v>11</v>
@@ -8147,18 +8167,18 @@
         <v>46</v>
       </c>
       <c r="N62" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" s="5">
         <v>313060</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D63" s="5">
         <v>11</v>
@@ -8191,18 +8211,18 @@
         <v>46</v>
       </c>
       <c r="N63" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64" s="5">
         <v>313070</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D64" s="5">
         <v>11</v>
@@ -8235,18 +8255,18 @@
         <v>46</v>
       </c>
       <c r="N64" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B65" s="5">
         <v>313080</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D65" s="5">
         <v>11</v>
@@ -8279,18 +8299,18 @@
         <v>46</v>
       </c>
       <c r="N65" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B66" s="5">
         <v>313090</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D66" s="5">
         <v>11</v>
@@ -8323,18 +8343,18 @@
         <v>46</v>
       </c>
       <c r="N66" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B67" s="5">
         <v>313091</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D67" s="5">
         <v>11</v>
@@ -8367,18 +8387,18 @@
         <v>46</v>
       </c>
       <c r="N67" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B68" s="5">
         <v>313100</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D68" s="5">
         <v>11</v>
@@ -8411,18 +8431,18 @@
         <v>46</v>
       </c>
       <c r="N68" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="44" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B69" s="5">
         <v>313101</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D69" s="5">
         <v>11</v>
@@ -8455,18 +8475,18 @@
         <v>46</v>
       </c>
       <c r="N69" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B70" s="5">
         <v>313110</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D70" s="5">
         <v>11</v>
@@ -8499,18 +8519,18 @@
         <v>46</v>
       </c>
       <c r="N70" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B71" s="5">
         <v>313111</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D71" s="5">
         <v>11</v>
@@ -8543,18 +8563,18 @@
         <v>46</v>
       </c>
       <c r="N71" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" s="5">
         <v>313120</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D72" s="5">
         <v>11</v>
@@ -8587,18 +8607,18 @@
         <v>46</v>
       </c>
       <c r="N72" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B73" s="5">
         <v>313130</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D73" s="5">
         <v>12</v>
@@ -8631,18 +8651,18 @@
         <v>46</v>
       </c>
       <c r="N73" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B74" s="5">
         <v>313140</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D74" s="5">
         <v>12</v>
@@ -8675,18 +8695,18 @@
         <v>46</v>
       </c>
       <c r="N74" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B75" s="5">
         <v>313150</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D75" s="5">
         <v>12</v>
@@ -8719,18 +8739,18 @@
         <v>46</v>
       </c>
       <c r="N75" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B76" s="5">
         <v>313160</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D76" s="5">
         <v>12</v>
@@ -8763,18 +8783,18 @@
         <v>46</v>
       </c>
       <c r="N76" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B77" s="5">
         <v>313170</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D77" s="5">
         <v>12</v>
@@ -8807,18 +8827,18 @@
         <v>46</v>
       </c>
       <c r="N77" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B78" s="5">
         <v>313180</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D78" s="5">
         <v>12</v>
@@ -8851,18 +8871,18 @@
         <v>46</v>
       </c>
       <c r="N78" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B79" s="5">
         <v>313181</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D79" s="5">
         <v>12</v>
@@ -8895,18 +8915,18 @@
         <v>46</v>
       </c>
       <c r="N79" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B80" s="5">
         <v>313190</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D80" s="5">
         <v>12</v>
@@ -8939,18 +8959,18 @@
         <v>46</v>
       </c>
       <c r="N80" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B81" s="5">
         <v>313191</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D81" s="5">
         <v>12</v>
@@ -8983,18 +9003,18 @@
         <v>46</v>
       </c>
       <c r="N81" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B82" s="5">
         <v>313200</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D82" s="5">
         <v>12</v>
@@ -9027,18 +9047,18 @@
         <v>46</v>
       </c>
       <c r="N82" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B83" s="5">
         <v>313210</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D83" s="5">
         <v>12</v>
@@ -9071,18 +9091,18 @@
         <v>46</v>
       </c>
       <c r="N83" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B84" s="5">
         <v>313211</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D84" s="5">
         <v>12</v>
@@ -9115,18 +9135,18 @@
         <v>46</v>
       </c>
       <c r="N84" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B85" s="5">
         <v>313220</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D85" s="5">
         <v>4</v>
@@ -9159,18 +9179,18 @@
         <v>46</v>
       </c>
       <c r="N85" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B86" s="5">
         <v>313230</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D86" s="5">
         <v>4</v>
@@ -9203,18 +9223,18 @@
         <v>46</v>
       </c>
       <c r="N86" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B87" s="5">
         <v>313240</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D87" s="5">
         <v>3</v>
@@ -9247,18 +9267,18 @@
         <v>46</v>
       </c>
       <c r="N87" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B88" s="5">
         <v>313250</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D88" s="5">
         <v>3</v>
@@ -9291,18 +9311,18 @@
         <v>46</v>
       </c>
       <c r="N88" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B89" s="5">
         <v>313260</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D89" s="5">
         <v>12</v>
@@ -9335,18 +9355,18 @@
         <v>46</v>
       </c>
       <c r="N89" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B90" s="5">
         <v>313270</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D90" s="5">
         <v>0</v>
@@ -9379,18 +9399,18 @@
         <v>46</v>
       </c>
       <c r="N90" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B91" s="5">
         <v>313280</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D91" s="5">
         <v>3</v>
@@ -9428,13 +9448,13 @@
     </row>
     <row r="92" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B92" s="5">
         <v>313290</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D92" s="5">
         <v>11</v>
@@ -9467,18 +9487,18 @@
         <v>46</v>
       </c>
       <c r="N92" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B93" s="5">
         <v>313300</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D93" s="5">
         <v>12</v>
@@ -9511,18 +9531,18 @@
         <v>46</v>
       </c>
       <c r="N93" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B94" s="5">
         <v>313310</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D94" s="5">
         <v>5</v>
@@ -9555,18 +9575,18 @@
         <v>46</v>
       </c>
       <c r="N94" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B95" s="5">
         <v>313320</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D95" s="5">
         <v>5</v>
@@ -9599,18 +9619,18 @@
         <v>46</v>
       </c>
       <c r="N95" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B96" s="5">
         <v>313330</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D96" s="5">
         <v>12</v>
@@ -9643,51 +9663,51 @@
         <v>46</v>
       </c>
       <c r="N96" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N97" s="51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O97" s="52"/>
       <c r="P97" s="52"/>
